--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F0233-6962-4361-B553-26702A6E3ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1632C9-CC20-4FA4-B1CE-1FDE984088CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>player</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Nate</t>
+  </si>
+  <si>
+    <t>5th-6th</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +231,42 @@
         <bgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -248,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -267,168 +306,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FFBF4F14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA02B93"/>
-          <bgColor rgb="FF0F9ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA02B93"/>
-          <bgColor rgb="FF0F9ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF1CEEE"/>
-          <bgColor rgb="FFF1CEEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0F9ED5"/>
-          <bgColor rgb="FF0F9ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0F9ED5"/>
-          <bgColor rgb="FF0F9ED5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -704,7 +597,7 @@
   <dimension ref="A1:Q998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -778,14 +671,37 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="I2" s="4" t="e">
+        <f>ROUND(IMDIV(B2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J2" s="4" t="e">
+        <f>ROUND(IMDIV(D2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K2" s="4" t="e">
+        <f>ROUND(IMDIV(E2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" s="4" t="e">
+        <f>ROUND(IMDIV(F2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M2" s="4" t="e">
+        <f>ROUND(IMDIV(B2,D2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N2" s="4" t="e">
+        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O2" s="4" t="e">
+        <f>ROUND(IMDIV(G2,H2),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
@@ -801,14 +717,37 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="I3" s="4" t="e">
+        <f t="shared" ref="I3:I15" si="0">ROUND(IMDIV(B3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J3" s="4" t="e">
+        <f t="shared" ref="J3:J15" si="1">ROUND(IMDIV(D3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K3" s="4" t="e">
+        <f t="shared" ref="K3:K15" si="2">ROUND(IMDIV(E3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L3" s="4" t="e">
+        <f t="shared" ref="L3:L15" si="3">ROUND(IMDIV(F3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" s="4" t="e">
+        <f t="shared" ref="M3:M15" si="4">ROUND(IMDIV(B3,D3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N3" s="4" t="e">
+        <f t="shared" ref="N3:N15" si="5">ROUND(IMDIV(C3,B3),4)*100</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="O3" s="4" t="e">
+        <f t="shared" ref="O3:O15" si="6">ROUND(IMDIV(G3,H3),2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>28</v>
       </c>
@@ -824,14 +763,37 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="14"/>
+      <c r="I4" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J4" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L4" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M4" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N4" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="Q4" s="12" t="s">
         <v>28</v>
       </c>
@@ -847,14 +809,37 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="14"/>
+      <c r="I5" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M5" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="Q5" s="12" t="s">
         <v>28</v>
       </c>
@@ -870,14 +855,37 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="6"/>
+      <c r="I6" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" s="19" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L6" s="19" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M6" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="19" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="19" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q6" s="2" t="s">
         <v>28</v>
       </c>
@@ -893,14 +901,37 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
+      <c r="I7" s="19" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K7" s="19" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" s="19" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M7" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" s="19" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O7" s="19" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q7" s="2" t="s">
         <v>28</v>
       </c>
@@ -916,14 +947,37 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="I8" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M8" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O8" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Q8" s="3" t="s">
         <v>28</v>
       </c>
@@ -939,14 +993,37 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="I9" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L9" s="20" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M9" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O9" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Q9" s="3" t="s">
         <v>28</v>
       </c>
@@ -962,14 +1039,37 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
+      <c r="I10" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L10" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M10" s="21" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O10" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="Q10" s="10" t="s">
         <v>28</v>
       </c>
@@ -985,14 +1085,37 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
+      <c r="I11" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K11" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L11" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M11" s="21" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" s="21" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O11" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="Q11" s="10" t="s">
         <v>28</v>
       </c>
@@ -1008,14 +1131,37 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="17"/>
+      <c r="I12" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J12" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K12" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L12" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M12" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N12" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O12" s="22" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="Q12" s="15" t="s">
         <v>28</v>
       </c>
@@ -1031,14 +1177,37 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="17"/>
+      <c r="I13" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J13" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K13" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L13" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M13" s="22" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N13" s="22" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O13" s="22" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="Q13" s="15" t="s">
         <v>28</v>
       </c>
@@ -1054,14 +1223,37 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="I14" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K14" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L14" s="23" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M14" s="23" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N14" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O14" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="Q14" s="13" t="s">
         <v>28</v>
       </c>
@@ -1077,14 +1269,37 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="I15" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" s="23" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K15" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L15" s="23" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M15" s="23" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N15" s="23" t="e">
+        <f t="shared" si="5"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O15" s="23" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="Q15" s="13" t="s">
         <v>28</v>
       </c>
@@ -2071,7 +2286,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
-    <sortCondition sortBy="cellColor" ref="B15" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="B15" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1632C9-CC20-4FA4-B1CE-1FDE984088CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11328A6-938A-4560-87C2-A6D82E48F290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
     <t>Nate</t>
   </si>
   <si>
-    <t>5th-6th</t>
+    <t>5th-7th</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -304,7 +304,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -312,6 +311,8 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +598,7 @@
   <dimension ref="A1:Q998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -664,40 +665,54 @@
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="e">
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>2</v>
+      </c>
+      <c r="G2" s="24">
+        <v>360</v>
+      </c>
+      <c r="H2" s="24">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
         <f>ROUND(IMDIV(B2,H2),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J2" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <f>ROUND(IMDIV(D2,H2),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K2" s="4" t="e">
+        <v>0.89</v>
+      </c>
+      <c r="K2" s="4">
         <f>ROUND(IMDIV(E2,H2),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
         <f>ROUND(IMDIV(F2,H2),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M2" s="4" t="e">
+        <v>0.22</v>
+      </c>
+      <c r="M2" s="4">
         <f>ROUND(IMDIV(B2,D2),2)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="e">
         <f>ROUND(IMDIV(C2,B2),4)*100</f>
         <v>#NUM!</v>
       </c>
-      <c r="O2" s="4" t="e">
+      <c r="O2" s="4">
         <f>ROUND(IMDIV(G2,H2),2)</f>
-        <v>#NUM!</v>
+        <v>40</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>32</v>
@@ -710,40 +725,54 @@
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4" t="e">
+      <c r="B3" s="24">
+        <v>3</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>351</v>
+      </c>
+      <c r="H3" s="24">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I15" si="0">ROUND(IMDIV(B3,H3),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" s="4" t="e">
+        <v>0.33</v>
+      </c>
+      <c r="J3" s="4">
         <f t="shared" ref="J3:J15" si="1">ROUND(IMDIV(D3,H3),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="K3" s="4" t="e">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
         <f t="shared" ref="K3:K15" si="2">ROUND(IMDIV(E3,H3),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L3" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <f t="shared" ref="L3:L15" si="3">ROUND(IMDIV(F3,H3),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M15" si="4">ROUND(IMDIV(B3,D3),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="N3" s="4" t="e">
+        <v>0.33</v>
+      </c>
+      <c r="N3" s="4">
         <f t="shared" ref="N3:N15" si="5">ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="O3" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
         <f t="shared" ref="O3:O15" si="6">ROUND(IMDIV(G3,H3),2)</f>
-        <v>#NUM!</v>
+        <v>39</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>32</v>
@@ -756,40 +785,54 @@
       <c r="A4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="18" t="e">
+      <c r="B4" s="12">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12">
+        <v>46</v>
+      </c>
+      <c r="F4" s="12">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1566</v>
+      </c>
+      <c r="H4" s="12">
+        <v>27</v>
+      </c>
+      <c r="I4" s="17">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" s="18" t="e">
+        <v>0.33</v>
+      </c>
+      <c r="J4" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K4" s="18" t="e">
+        <v>0.63</v>
+      </c>
+      <c r="K4" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L4" s="18" t="e">
+        <v>1.7</v>
+      </c>
+      <c r="L4" s="17">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M4" s="18" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="17">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N4" s="18" t="e">
+        <v>0.53</v>
+      </c>
+      <c r="N4" s="17">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O4" s="18" t="e">
+        <v>66.67</v>
+      </c>
+      <c r="O4" s="17">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>58</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>32</v>
@@ -802,40 +845,54 @@
       <c r="A5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="18" t="e">
+      <c r="B5" s="12">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12">
+        <v>146</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2295</v>
+      </c>
+      <c r="H5" s="12">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J5" s="18" t="e">
+        <v>0.74</v>
+      </c>
+      <c r="J5" s="17">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K5" s="18" t="e">
+        <v>0.63</v>
+      </c>
+      <c r="K5" s="17">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L5" s="18" t="e">
+        <v>5.41</v>
+      </c>
+      <c r="L5" s="17">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M5" s="18" t="e">
+        <v>0.19</v>
+      </c>
+      <c r="M5" s="17">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N5" s="18" t="e">
+        <v>1.18</v>
+      </c>
+      <c r="N5" s="17">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O5" s="18" t="e">
+        <v>60</v>
+      </c>
+      <c r="O5" s="17">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>85</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>32</v>
@@ -848,40 +905,54 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="19" t="e">
+      <c r="B6" s="2">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2430</v>
+      </c>
+      <c r="H6" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" s="18">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J6" s="19" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="18">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K6" s="19" t="e">
+        <v>0.63</v>
+      </c>
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L6" s="19" t="e">
+        <v>3.33</v>
+      </c>
+      <c r="L6" s="18">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M6" s="19" t="e">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N6" s="19" t="e">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N6" s="18">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O6" s="19" t="e">
+        <v>38.1</v>
+      </c>
+      <c r="O6" s="18">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>81</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>32</v>
@@ -894,40 +965,54 @@
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="19" t="e">
+      <c r="B7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1842</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30</v>
+      </c>
+      <c r="I7" s="18">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J7" s="19" t="e">
+        <v>0.43</v>
+      </c>
+      <c r="J7" s="18">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K7" s="19" t="e">
+        <v>0.77</v>
+      </c>
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L7" s="19" t="e">
+        <v>0.37</v>
+      </c>
+      <c r="L7" s="18">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M7" s="19" t="e">
+        <v>0.03</v>
+      </c>
+      <c r="M7" s="18">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N7" s="19" t="e">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N7" s="18">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O7" s="19" t="e">
+        <v>53.849999999999994</v>
+      </c>
+      <c r="O7" s="18">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>61.4</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>32</v>
@@ -940,40 +1025,54 @@
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="20" t="e">
+      <c r="B8" s="3">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2009</v>
+      </c>
+      <c r="H8" s="3">
+        <v>25</v>
+      </c>
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J8" s="20" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="19">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K8" s="20" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="K8" s="19">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L8" s="20" t="e">
+        <v>4.08</v>
+      </c>
+      <c r="L8" s="19">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M8" s="20" t="e">
+        <v>0.24</v>
+      </c>
+      <c r="M8" s="19">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N8" s="20" t="e">
+        <v>1.82</v>
+      </c>
+      <c r="N8" s="19">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O8" s="20" t="e">
+        <v>45</v>
+      </c>
+      <c r="O8" s="19">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>80.36</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>32</v>
@@ -986,40 +1085,54 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="20" t="e">
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2311</v>
+      </c>
+      <c r="H9" s="3">
+        <v>25</v>
+      </c>
+      <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J9" s="20" t="e">
+        <v>0.76</v>
+      </c>
+      <c r="J9" s="19">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K9" s="20" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="K9" s="19">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L9" s="20" t="e">
+        <v>1.88</v>
+      </c>
+      <c r="L9" s="19">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M9" s="20" t="e">
+        <v>0.08</v>
+      </c>
+      <c r="M9" s="19">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N9" s="20" t="e">
+        <v>1.73</v>
+      </c>
+      <c r="N9" s="19">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O9" s="20" t="e">
+        <v>31.580000000000002</v>
+      </c>
+      <c r="O9" s="19">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>92.44</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>32</v>
@@ -1032,40 +1145,54 @@
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="21" t="e">
+      <c r="B10" s="10">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10">
+        <v>154</v>
+      </c>
+      <c r="F10" s="10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1818</v>
+      </c>
+      <c r="H10" s="10">
+        <v>36</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" s="21" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K10" s="21" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="K10" s="20">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L10" s="21" t="e">
+        <v>4.28</v>
+      </c>
+      <c r="L10" s="20">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M10" s="21" t="e">
+        <v>0.17</v>
+      </c>
+      <c r="M10" s="20">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N10" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O10" s="21" t="e">
+        <v>43.75</v>
+      </c>
+      <c r="O10" s="20">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>50.5</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>32</v>
@@ -1078,40 +1205,54 @@
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="21" t="e">
+      <c r="B11" s="10">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10">
+        <v>241</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3537</v>
+      </c>
+      <c r="H11" s="10">
+        <v>36</v>
+      </c>
+      <c r="I11" s="20">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J11" s="21" t="e">
+        <v>0.97</v>
+      </c>
+      <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K11" s="21" t="e">
+        <v>0.44</v>
+      </c>
+      <c r="K11" s="20">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L11" s="21" t="e">
+        <v>6.69</v>
+      </c>
+      <c r="L11" s="20">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M11" s="21" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="M11" s="20">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" s="21" t="e">
+        <v>2.19</v>
+      </c>
+      <c r="N11" s="20">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O11" s="21" t="e">
+        <v>54.290000000000006</v>
+      </c>
+      <c r="O11" s="20">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>98.25</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>32</v>
@@ -1124,42 +1265,56 @@
       <c r="A12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="22" t="e">
+      <c r="B12" s="23">
+        <v>18</v>
+      </c>
+      <c r="C12" s="23">
+        <v>12</v>
+      </c>
+      <c r="D12" s="23">
+        <v>19</v>
+      </c>
+      <c r="E12" s="23">
+        <v>133</v>
+      </c>
+      <c r="F12" s="23">
+        <v>9</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2152</v>
+      </c>
+      <c r="H12" s="23">
+        <v>25</v>
+      </c>
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" s="22" t="e">
+        <v>0.72</v>
+      </c>
+      <c r="J12" s="21">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K12" s="22" t="e">
+        <v>0.76</v>
+      </c>
+      <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L12" s="22" t="e">
+        <v>5.32</v>
+      </c>
+      <c r="L12" s="21">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M12" s="22" t="e">
+        <v>0.36</v>
+      </c>
+      <c r="M12" s="21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" s="22" t="e">
+        <v>0.95</v>
+      </c>
+      <c r="N12" s="21">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O12" s="22" t="e">
+        <v>66.67</v>
+      </c>
+      <c r="O12" s="21">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P12" s="17" t="s">
+        <v>86.08</v>
+      </c>
+      <c r="P12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="Q12" s="15" t="s">
@@ -1170,42 +1325,56 @@
       <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="22" t="e">
+      <c r="B13" s="23">
+        <v>6</v>
+      </c>
+      <c r="C13" s="23">
+        <v>3</v>
+      </c>
+      <c r="D13" s="23">
+        <v>20</v>
+      </c>
+      <c r="E13" s="23">
+        <v>27</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>904</v>
+      </c>
+      <c r="H13" s="23">
+        <v>25</v>
+      </c>
+      <c r="I13" s="21">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J13" s="22" t="e">
+        <v>0.24</v>
+      </c>
+      <c r="J13" s="21">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K13" s="22" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L13" s="22" t="e">
+        <v>1.08</v>
+      </c>
+      <c r="L13" s="21">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M13" s="22" t="e">
+        <v>0.04</v>
+      </c>
+      <c r="M13" s="21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N13" s="22" t="e">
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="21">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O13" s="22" t="e">
+        <v>50</v>
+      </c>
+      <c r="O13" s="21">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P13" s="17" t="s">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="P13" s="16" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="15" t="s">
@@ -1216,40 +1385,54 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="23" t="e">
+      <c r="B14" s="13">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13">
+        <v>47</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2390</v>
+      </c>
+      <c r="H14" s="13">
+        <v>30</v>
+      </c>
+      <c r="I14" s="22">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J14" s="23" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="22">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K14" s="23" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="K14" s="22">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L14" s="23" t="e">
+        <v>1.57</v>
+      </c>
+      <c r="L14" s="22">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M14" s="23" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="22">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" s="23" t="e">
+        <v>1.17</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O14" s="23" t="e">
+        <v>38.1</v>
+      </c>
+      <c r="O14" s="22">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>79.67</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>32</v>
@@ -1262,40 +1445,54 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="23" t="e">
+      <c r="B15" s="13">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13">
+        <v>12</v>
+      </c>
+      <c r="D15" s="13">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13">
+        <v>40</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2198</v>
+      </c>
+      <c r="H15" s="13">
+        <v>30</v>
+      </c>
+      <c r="I15" s="22">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J15" s="23" t="e">
+        <v>0.67</v>
+      </c>
+      <c r="J15" s="22">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K15" s="23" t="e">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="22">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L15" s="23" t="e">
+        <v>1.33</v>
+      </c>
+      <c r="L15" s="22">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M15" s="23" t="e">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15" s="22">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" s="23" t="e">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O15" s="23" t="e">
+        <v>60</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="6"/>
-        <v>#NUM!</v>
+        <v>73.27</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>32</v>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11328A6-938A-4560-87C2-A6D82E48F290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E6482-9277-453A-8430-F6CA6560A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:Q998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -906,53 +906,53 @@
         <v>26</v>
       </c>
       <c r="B6" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>2430</v>
+        <v>3438</v>
       </c>
       <c r="H6" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K6" s="18">
         <f t="shared" si="2"/>
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" si="4"/>
-        <v>1.1100000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" si="5"/>
-        <v>38.1</v>
+        <v>44.83</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="6"/>
-        <v>81</v>
+        <v>78.14</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>32</v>
@@ -966,53 +966,53 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>11</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
-        <v>1842</v>
+        <v>2990</v>
       </c>
       <c r="H7" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I7" s="18">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="J7" s="18">
         <f t="shared" si="1"/>
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="K7" s="18">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="L7" s="18">
         <f t="shared" si="3"/>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" si="4"/>
-        <v>0.56999999999999995</v>
+        <v>0.77</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" si="5"/>
-        <v>53.849999999999994</v>
+        <v>47.83</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" si="6"/>
-        <v>61.4</v>
+        <v>67.95</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>32</v>
@@ -1266,53 +1266,53 @@
         <v>23</v>
       </c>
       <c r="B12" s="23">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D12" s="23">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E12" s="23">
         <v>133</v>
       </c>
       <c r="F12" s="23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G12" s="23">
-        <v>2152</v>
+        <v>3678</v>
       </c>
       <c r="H12" s="23">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="1"/>
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>5.32</v>
+        <v>3.41</v>
       </c>
       <c r="L12" s="21">
         <f t="shared" si="3"/>
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="M12" s="21">
         <f t="shared" si="4"/>
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="N12" s="21">
         <f t="shared" si="5"/>
-        <v>66.67</v>
+        <v>73.33</v>
       </c>
       <c r="O12" s="21">
         <f t="shared" si="6"/>
-        <v>86.08</v>
+        <v>94.31</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>32</v>
@@ -1326,53 +1326,53 @@
         <v>24</v>
       </c>
       <c r="B13" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="23">
         <v>3</v>
       </c>
       <c r="D13" s="23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E13" s="23">
         <v>27</v>
       </c>
       <c r="F13" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="23">
-        <v>904</v>
+        <v>1114</v>
       </c>
       <c r="H13" s="23">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I13" s="21">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="J13" s="21">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>1.08</v>
+        <v>0.69</v>
       </c>
       <c r="L13" s="21">
         <f t="shared" si="3"/>
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M13" s="21">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="N13" s="21">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>42.86</v>
       </c>
       <c r="O13" s="21">
         <f t="shared" si="6"/>
-        <v>36.159999999999997</v>
+        <v>28.56</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>32</v>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB92136-9EAA-47F4-A66F-89274A014609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C83E86-6521-46FA-8956-A7F0258D4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20535" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,8 +340,8 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="38100" cy="171450"/>
     <xdr:sp macro="" textlink="">
@@ -590,20 +590,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q998"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="8.54296875" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" customWidth="1"/>
-    <col min="17" max="26" width="8.54296875" customWidth="1"/>
+    <col min="1" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -656,34 +656,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="3">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3">
-        <v>3239</v>
+        <v>4839</v>
       </c>
       <c r="H2" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" ref="I2:I11" si="0">ROUND(IMDIV(B2,H2),2)</f>
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" ref="J2:J11" si="1">ROUND(IMDIV(D2,H2),2)</f>
@@ -691,23 +691,23 @@
       </c>
       <c r="K2" s="17">
         <f t="shared" ref="K2:K11" si="2">ROUND(IMDIV(E2,H2),2)</f>
-        <v>3.95</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" ref="L2:L11" si="3">ROUND(IMDIV(F2,H2),2)</f>
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="M2" s="17">
         <f t="shared" ref="M2:M11" si="4">ROUND(IMDIV(B2,D2),2)</f>
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="N2" s="17">
         <f t="shared" ref="N2:N11" si="5">ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>44.12</v>
+        <v>52.080000000000005</v>
       </c>
       <c r="O2" s="17">
         <f t="shared" ref="O2:O11" si="6">ROUND(IMDIV(G2,H2),2)</f>
-        <v>80.98</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>32</v>
@@ -716,34 +716,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F3" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3">
-        <v>3211</v>
+        <v>4331</v>
       </c>
       <c r="H3" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" si="0"/>
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" si="1"/>
@@ -751,23 +751,23 @@
       </c>
       <c r="K3" s="17">
         <f t="shared" si="2"/>
-        <v>3.3</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="L3" s="17">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="M3" s="17">
         <f t="shared" si="4"/>
-        <v>1.0900000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="N3" s="17">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>41.67</v>
       </c>
       <c r="O3" s="17">
         <f t="shared" si="6"/>
-        <v>80.28</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>32</v>
@@ -776,58 +776,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="9">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="F4" s="9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G4" s="9">
-        <v>4805</v>
+        <v>7255</v>
       </c>
       <c r="H4" s="9">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I4" s="18">
         <f>ROUND(IMDIV(B4,H4),2)</f>
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="18">
         <f>ROUND(IMDIV(D4,H4),2)</f>
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="K4" s="18">
         <f>ROUND(IMDIV(E4,H4),2)</f>
-        <v>6.17</v>
+        <v>7.13</v>
       </c>
       <c r="L4" s="18">
         <f>ROUND(IMDIV(F4,H4),2)</f>
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="M4" s="18">
         <f>ROUND(IMDIV(B4,D4),2)</f>
-        <v>2.42</v>
+        <v>1.68</v>
       </c>
       <c r="N4" s="18">
         <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>50</v>
+        <v>46.88</v>
       </c>
       <c r="O4" s="18">
         <f>ROUND(IMDIV(G4,H4),2)</f>
-        <v>102.23</v>
+        <v>90.69</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>32</v>
@@ -836,46 +836,46 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>310</v>
+      </c>
+      <c r="F5" s="9">
         <v>20</v>
       </c>
-      <c r="E5" s="9">
-        <v>282</v>
-      </c>
-      <c r="F5" s="9">
-        <v>13</v>
-      </c>
       <c r="G5" s="9">
-        <v>2595</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="9">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I5" s="18">
         <f>ROUND(IMDIV(B5,H5),2)</f>
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="18">
         <f>ROUND(IMDIV(D5,H5),2)</f>
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="18">
         <f>ROUND(IMDIV(E5,H5),2)</f>
-        <v>6</v>
+        <v>3.88</v>
       </c>
       <c r="L5" s="18">
         <f>ROUND(IMDIV(F5,H5),2)</f>
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="M5" s="18">
         <f>ROUND(IMDIV(B5,D5),2)</f>
@@ -883,11 +883,11 @@
       </c>
       <c r="N5" s="18">
         <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>50</v>
+        <v>60.419999999999995</v>
       </c>
       <c r="O5" s="18">
         <f>ROUND(IMDIV(G5,H5),2)</f>
-        <v>55.21</v>
+        <v>62.5</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>32</v>
@@ -896,42 +896,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="22">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C6" s="22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="22">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E6" s="22">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F6" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="22">
-        <v>4892</v>
+        <v>5828</v>
       </c>
       <c r="H6" s="22">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="0"/>
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="J6" s="20">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K6" s="20">
         <f t="shared" si="2"/>
-        <v>2.74</v>
+        <v>2.37</v>
       </c>
       <c r="L6" s="20">
         <f t="shared" si="3"/>
@@ -939,15 +939,15 @@
       </c>
       <c r="M6" s="20">
         <f t="shared" si="4"/>
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" si="5"/>
-        <v>48.89</v>
+        <v>48.08</v>
       </c>
       <c r="O6" s="20">
         <f t="shared" si="6"/>
-        <v>90.59</v>
+        <v>86.99</v>
       </c>
       <c r="P6" s="22" t="s">
         <v>32</v>
@@ -956,38 +956,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="22">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" s="22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="22">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E7" s="22">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F7" s="22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G7" s="22">
-        <v>3647</v>
+        <v>4531</v>
       </c>
       <c r="H7" s="22">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="0"/>
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.61</v>
       </c>
       <c r="K7" s="20">
         <f t="shared" si="2"/>
@@ -995,19 +995,19 @@
       </c>
       <c r="L7" s="20">
         <f t="shared" si="3"/>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M7" s="20">
         <f t="shared" si="4"/>
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" si="5"/>
-        <v>54.55</v>
+        <v>50</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="6"/>
-        <v>67.540000000000006</v>
+        <v>67.63</v>
       </c>
       <c r="P7" s="22" t="s">
         <v>32</v>
@@ -1016,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
@@ -1136,34 +1136,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>132</v>
       </c>
       <c r="F10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2">
-        <v>3438</v>
+        <v>4180</v>
       </c>
       <c r="H10" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="0"/>
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="1"/>
@@ -1171,23 +1171,23 @@
       </c>
       <c r="K10" s="16">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="3"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" si="4"/>
-        <v>1.1599999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N10" s="16">
         <f t="shared" si="5"/>
-        <v>44.83</v>
+        <v>36.11</v>
       </c>
       <c r="O10" s="16">
         <f t="shared" si="6"/>
-        <v>78.14</v>
+        <v>72.069999999999993</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>32</v>
@@ -1196,58 +1196,58 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>2990</v>
+        <v>4216</v>
       </c>
       <c r="H11" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="1"/>
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="K11" s="16">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.81</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="3"/>
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" si="4"/>
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="N11" s="16">
         <f t="shared" si="5"/>
-        <v>47.83</v>
+        <v>51.43</v>
       </c>
       <c r="O11" s="16">
         <f t="shared" si="6"/>
-        <v>67.95</v>
+        <v>72.69</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>32</v>
@@ -1256,7 +1256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="21">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E12" s="21">
         <v>192</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="J12" s="19">
         <f>ROUND(IMDIV(D12,H12),2)</f>
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
       <c r="K12" s="19">
         <f>ROUND(IMDIV(E12,H12),2)</f>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="M12" s="19">
         <f>ROUND(IMDIV(B12,D12),2)</f>
-        <v>2.06</v>
+        <v>0.95</v>
       </c>
       <c r="N12" s="19">
         <f>ROUND(IMDIV(C12,B12),4)*100</f>
@@ -1316,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1376,30 +1376,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="24">
         <v>1</v>
       </c>
       <c r="D14" s="24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E14" s="24">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F14" s="24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" s="24">
-        <v>1266</v>
+        <v>1812</v>
       </c>
       <c r="H14" s="24">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I14" s="4">
         <f>ROUND(IMDIV(B14,H14),2)</f>
@@ -1407,27 +1407,27 @@
       </c>
       <c r="J14" s="4">
         <f>ROUND(IMDIV(D14,H14),2)</f>
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="K14" s="4">
         <f>ROUND(IMDIV(E14,H14),2)</f>
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="L14" s="4">
         <f>ROUND(IMDIV(F14,H14),2)</f>
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="M14" s="4">
         <f>ROUND(IMDIV(B14,D14),2)</f>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="N14" s="4">
         <f>ROUND(IMDIV(C14,B14),4)*100</f>
-        <v>25</v>
+        <v>16.669999999999998</v>
       </c>
       <c r="O14" s="4">
         <f>ROUND(IMDIV(G14,H14),2)</f>
-        <v>45.21</v>
+        <v>43.14</v>
       </c>
       <c r="P14" s="23" t="s">
         <v>32</v>
@@ -1436,18 +1436,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="24">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C15" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="24">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E15" s="23">
         <v>0</v>
@@ -1456,18 +1456,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="24">
-        <v>1062</v>
+        <v>2154</v>
       </c>
       <c r="H15" s="24">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I15" s="4">
         <f>ROUND(IMDIV(B15,H15),2)</f>
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="J15" s="4">
         <f>ROUND(IMDIV(D15,H15),2)</f>
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="K15" s="4">
         <f>ROUND(IMDIV(E15,H15),2)</f>
@@ -1479,15 +1479,15 @@
       </c>
       <c r="M15" s="4">
         <f>ROUND(IMDIV(B15,D15),2)</f>
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="N15" s="4">
         <f>ROUND(IMDIV(C15,B15),4)*100</f>
-        <v>28.57</v>
+        <v>22.220000000000002</v>
       </c>
       <c r="O15" s="4">
         <f>ROUND(IMDIV(G15,H15),2)</f>
-        <v>37.93</v>
+        <v>51.29</v>
       </c>
       <c r="P15" s="23" t="s">
         <v>32</v>
@@ -1496,986 +1496,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
     <sortCondition sortBy="cellColor" ref="Q14:Q15" dxfId="0"/>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C83E86-6521-46FA-8956-A7F0258D4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B731C4-3BB5-4CC5-856C-76B6121DF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="20535" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,7 +593,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1021,53 +1021,53 @@
         <v>31</v>
       </c>
       <c r="B8" s="11">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C8" s="11">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="11">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="11">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="F8" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" s="11">
-        <v>3055</v>
+        <v>4335</v>
       </c>
       <c r="H8" s="11">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I8" s="15">
         <f>ROUND(IMDIV(B8,H8),2)</f>
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="J8" s="15">
         <f>ROUND(IMDIV(D8,H8),2)</f>
-        <v>0.56999999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="K8" s="15">
         <f>ROUND(IMDIV(E8,H8),2)</f>
-        <v>6.38</v>
+        <v>6.91</v>
       </c>
       <c r="L8" s="15">
         <f>ROUND(IMDIV(F8,H8),2)</f>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="M8" s="15">
         <f>ROUND(IMDIV(B8,D8),2)</f>
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="N8" s="15">
         <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>59.260000000000005</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="O8" s="15">
         <f>ROUND(IMDIV(G8,H8),2)</f>
-        <v>82.57</v>
+        <v>92.23</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>32</v>
@@ -1081,53 +1081,53 @@
         <v>30</v>
       </c>
       <c r="B9" s="11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" s="11">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F9" s="11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G9" s="11">
-        <v>2726</v>
+        <v>3336</v>
       </c>
       <c r="H9" s="11">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I9" s="15">
         <f>ROUND(IMDIV(B9,H9),2)</f>
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="J9" s="15">
         <f>ROUND(IMDIV(D9,H9),2)</f>
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="K9" s="15">
         <f>ROUND(IMDIV(E9,H9),2)</f>
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="L9" s="15">
         <f>ROUND(IMDIV(F9,H9),2)</f>
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M9" s="15">
         <f>ROUND(IMDIV(B9,D9),2)</f>
-        <v>1.1100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="N9" s="15">
         <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>42.86</v>
+        <v>39.290000000000006</v>
       </c>
       <c r="O9" s="15">
         <f>ROUND(IMDIV(G9,H9),2)</f>
-        <v>73.680000000000007</v>
+        <v>70.98</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>32</v>
@@ -1261,53 +1261,53 @@
         <v>23</v>
       </c>
       <c r="B12" s="21">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="21">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="21">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E12" s="21">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="F12" s="21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" s="21">
-        <v>4450</v>
+        <v>5150</v>
       </c>
       <c r="H12" s="21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I12" s="19">
         <f>ROUND(IMDIV(B12,H12),2)</f>
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="J12" s="19">
         <f>ROUND(IMDIV(D12,H12),2)</f>
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="K12" s="19">
         <f>ROUND(IMDIV(E12,H12),2)</f>
-        <v>3.84</v>
+        <v>5.13</v>
       </c>
       <c r="L12" s="19">
         <f>ROUND(IMDIV(F12,H12),2)</f>
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="M12" s="19">
         <f>ROUND(IMDIV(B12,D12),2)</f>
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="N12" s="19">
         <f>ROUND(IMDIV(C12,B12),4)*100</f>
-        <v>68.569999999999993</v>
+        <v>67.5</v>
       </c>
       <c r="O12" s="19">
         <f>ROUND(IMDIV(G12,H12),2)</f>
-        <v>89</v>
+        <v>85.83</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>32</v>
@@ -1321,53 +1321,53 @@
         <v>24</v>
       </c>
       <c r="B13" s="21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="21">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E13" s="21">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F13" s="21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="21">
-        <v>1466</v>
+        <v>1886</v>
       </c>
       <c r="H13" s="21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I13" s="19">
         <f>ROUND(IMDIV(B13,H13),2)</f>
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="19">
         <f>ROUND(IMDIV(D13,H13),2)</f>
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="K13" s="19">
         <f>ROUND(IMDIV(E13,H13),2)</f>
-        <v>0.6</v>
+        <v>1.85</v>
       </c>
       <c r="L13" s="19">
         <f>ROUND(IMDIV(F13,H13),2)</f>
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="M13" s="19">
         <f>ROUND(IMDIV(B13,D13),2)</f>
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="N13" s="19">
         <f>ROUND(IMDIV(C13,B13),4)*100</f>
-        <v>44.440000000000005</v>
+        <v>50</v>
       </c>
       <c r="O13" s="19">
         <f>ROUND(IMDIV(G13,H13),2)</f>
-        <v>29.32</v>
+        <v>31.43</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>32</v>
@@ -1504,4 +1504,10 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{edaa6760-dc32-42b1-9af8-b6b7dd0c31e7}" enabled="1" method="Standard" siteId="{9fdb1b0c-e154-4e66-9ecb-b70f283e1e71}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B731C4-3BB5-4CC5-856C-76B6121DF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E23DBBA-D598-4C7F-80A7-ED01120DB9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20535" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="5340" windowWidth="20535" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1021,53 +1021,53 @@
         <v>31</v>
       </c>
       <c r="B8" s="11">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E8" s="11">
         <v>325</v>
       </c>
       <c r="F8" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="11">
-        <v>4335</v>
+        <v>5040</v>
       </c>
       <c r="H8" s="11">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I8" s="15">
         <f>ROUND(IMDIV(B8,H8),2)</f>
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="J8" s="15">
         <f>ROUND(IMDIV(D8,H8),2)</f>
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K8" s="15">
         <f>ROUND(IMDIV(E8,H8),2)</f>
-        <v>6.91</v>
+        <v>5.24</v>
       </c>
       <c r="L8" s="15">
         <f>ROUND(IMDIV(F8,H8),2)</f>
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="M8" s="15">
         <f>ROUND(IMDIV(B8,D8),2)</f>
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="N8" s="15">
         <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>64.099999999999994</v>
+        <v>65.91</v>
       </c>
       <c r="O8" s="15">
         <f>ROUND(IMDIV(G8,H8),2)</f>
-        <v>92.23</v>
+        <v>81.290000000000006</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>32</v>
@@ -1081,53 +1081,53 @@
         <v>30</v>
       </c>
       <c r="B9" s="11">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E9" s="11">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F9" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="11">
-        <v>3336</v>
+        <v>4866</v>
       </c>
       <c r="H9" s="11">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I9" s="15">
         <f>ROUND(IMDIV(B9,H9),2)</f>
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="J9" s="15">
         <f>ROUND(IMDIV(D9,H9),2)</f>
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K9" s="15">
         <f>ROUND(IMDIV(E9,H9),2)</f>
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="L9" s="15">
         <f>ROUND(IMDIV(F9,H9),2)</f>
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="M9" s="15">
         <f>ROUND(IMDIV(B9,D9),2)</f>
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="N9" s="15">
         <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>39.290000000000006</v>
+        <v>46.339999999999996</v>
       </c>
       <c r="O9" s="15">
         <f>ROUND(IMDIV(G9,H9),2)</f>
-        <v>70.98</v>
+        <v>78.48</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>32</v>
@@ -1141,53 +1141,53 @@
         <v>26</v>
       </c>
       <c r="B10" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="2">
-        <v>4180</v>
+        <v>5305</v>
       </c>
       <c r="H10" s="2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="0"/>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K10" s="16">
         <f t="shared" si="2"/>
-        <v>2.2799999999999998</v>
+        <v>2.41</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" si="4"/>
-        <v>1.0900000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N10" s="16">
         <f t="shared" si="5"/>
-        <v>36.11</v>
+        <v>30.43</v>
       </c>
       <c r="O10" s="16">
         <f t="shared" si="6"/>
-        <v>72.069999999999993</v>
+        <v>72.67</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>32</v>
@@ -1201,37 +1201,37 @@
         <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2">
-        <v>4216</v>
+        <v>5416</v>
       </c>
       <c r="H11" s="2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="K11" s="16">
         <f t="shared" si="2"/>
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="3"/>
@@ -1239,15 +1239,15 @@
       </c>
       <c r="M11" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="N11" s="16">
         <f t="shared" si="5"/>
-        <v>51.43</v>
+        <v>51.06</v>
       </c>
       <c r="O11" s="16">
         <f t="shared" si="6"/>
-        <v>72.69</v>
+        <v>74.19</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>32</v>
@@ -1261,53 +1261,53 @@
         <v>23</v>
       </c>
       <c r="B12" s="21">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" s="21">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" s="21">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="F12" s="21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G12" s="21">
-        <v>5150</v>
+        <v>6996</v>
       </c>
       <c r="H12" s="21">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I12" s="19">
         <f>ROUND(IMDIV(B12,H12),2)</f>
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="J12" s="19">
         <f>ROUND(IMDIV(D12,H12),2)</f>
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="K12" s="19">
         <f>ROUND(IMDIV(E12,H12),2)</f>
-        <v>5.13</v>
+        <v>5.48</v>
       </c>
       <c r="L12" s="19">
         <f>ROUND(IMDIV(F12,H12),2)</f>
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="M12" s="19">
         <f>ROUND(IMDIV(B12,D12),2)</f>
-        <v>0.87</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N12" s="19">
         <f>ROUND(IMDIV(C12,B12),4)*100</f>
-        <v>67.5</v>
+        <v>67.86</v>
       </c>
       <c r="O12" s="19">
         <f>ROUND(IMDIV(G12,H12),2)</f>
-        <v>85.83</v>
+        <v>95.84</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>32</v>
@@ -1321,45 +1321,45 @@
         <v>24</v>
       </c>
       <c r="B13" s="21">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="21">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="21">
         <v>111</v>
       </c>
       <c r="F13" s="21">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G13" s="21">
-        <v>1886</v>
+        <v>2380</v>
       </c>
       <c r="H13" s="21">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I13" s="19">
         <f>ROUND(IMDIV(B13,H13),2)</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J13" s="19">
         <f>ROUND(IMDIV(D13,H13),2)</f>
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="K13" s="19">
         <f>ROUND(IMDIV(E13,H13),2)</f>
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="L13" s="19">
         <f>ROUND(IMDIV(F13,H13),2)</f>
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="M13" s="19">
         <f>ROUND(IMDIV(B13,D13),2)</f>
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="N13" s="19">
         <f>ROUND(IMDIV(C13,B13),4)*100</f>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="O13" s="19">
         <f>ROUND(IMDIV(G13,H13),2)</f>
-        <v>31.43</v>
+        <v>32.6</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>32</v>
@@ -1381,53 +1381,53 @@
         <v>25</v>
       </c>
       <c r="B14" s="24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="24">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E14" s="24">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F14" s="24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G14" s="24">
-        <v>1812</v>
+        <v>2514</v>
       </c>
       <c r="H14" s="24">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I14" s="4">
         <f>ROUND(IMDIV(B14,H14),2)</f>
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="4">
         <f>ROUND(IMDIV(D14,H14),2)</f>
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K14" s="4">
         <f>ROUND(IMDIV(E14,H14),2)</f>
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
         <f>ROUND(IMDIV(F14,H14),2)</f>
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="M14" s="4">
         <f>ROUND(IMDIV(B14,D14),2)</f>
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="N14" s="4">
         <f>ROUND(IMDIV(C14,B14),4)*100</f>
-        <v>16.669999999999998</v>
+        <v>27.27</v>
       </c>
       <c r="O14" s="4">
         <f>ROUND(IMDIV(G14,H14),2)</f>
-        <v>43.14</v>
+        <v>45.71</v>
       </c>
       <c r="P14" s="23" t="s">
         <v>32</v>
@@ -1441,13 +1441,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="24">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" s="24">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E15" s="23">
         <v>0</v>
@@ -1456,18 +1456,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="24">
-        <v>2154</v>
+        <v>2583</v>
       </c>
       <c r="H15" s="24">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I15" s="4">
         <f>ROUND(IMDIV(B15,H15),2)</f>
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="J15" s="4">
         <f>ROUND(IMDIV(D15,H15),2)</f>
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K15" s="4">
         <f>ROUND(IMDIV(E15,H15),2)</f>
@@ -1479,15 +1479,15 @@
       </c>
       <c r="M15" s="4">
         <f>ROUND(IMDIV(B15,D15),2)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="N15" s="4">
         <f>ROUND(IMDIV(C15,B15),4)*100</f>
-        <v>22.220000000000002</v>
+        <v>28.57</v>
       </c>
       <c r="O15" s="4">
         <f>ROUND(IMDIV(G15,H15),2)</f>
-        <v>51.29</v>
+        <v>46.96</v>
       </c>
       <c r="P15" s="23" t="s">
         <v>32</v>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E23DBBA-D598-4C7F-80A7-ED01120DB9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444B1E8-16E4-4C77-B35D-30BEA233FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="5340" windowWidth="20535" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="765" windowWidth="16620" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>player</t>
   </si>
@@ -134,7 +134,16 @@
     <t>Nate</t>
   </si>
   <si>
-    <t>5th-7th</t>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>1st-4th</t>
   </si>
 </sst>
 </file>
@@ -593,7 +602,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -661,56 +670,56 @@
         <v>21</v>
       </c>
       <c r="B2" s="3">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3">
-        <v>4839</v>
+        <v>5829</v>
       </c>
       <c r="H2" s="3">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I2" s="17">
-        <f t="shared" ref="I2:I11" si="0">ROUND(IMDIV(B2,H2),2)</f>
-        <v>0.8</v>
+        <f>ROUND(IMDIV(B2,H2),2)</f>
+        <v>0.83</v>
       </c>
       <c r="J2" s="17">
-        <f t="shared" ref="J2:J11" si="1">ROUND(IMDIV(D2,H2),2)</f>
-        <v>0.45</v>
+        <f>ROUND(IMDIV(D2,H2),2)</f>
+        <v>0.41</v>
       </c>
       <c r="K2" s="17">
-        <f t="shared" ref="K2:K11" si="2">ROUND(IMDIV(E2,H2),2)</f>
-        <v>4.0999999999999996</v>
+        <f>ROUND(IMDIV(E2,H2),2)</f>
+        <v>4.28</v>
       </c>
       <c r="L2" s="17">
-        <f t="shared" ref="L2:L11" si="3">ROUND(IMDIV(F2,H2),2)</f>
-        <v>0.32</v>
+        <f>ROUND(IMDIV(F2,H2),2)</f>
+        <v>0.3</v>
       </c>
       <c r="M2" s="17">
-        <f t="shared" ref="M2:M11" si="4">ROUND(IMDIV(B2,D2),2)</f>
-        <v>1.78</v>
+        <f>ROUND(IMDIV(B2,D2),2)</f>
+        <v>2.0299999999999998</v>
       </c>
       <c r="N2" s="17">
-        <f t="shared" ref="N2:N11" si="5">ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>52.080000000000005</v>
+        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>52.54</v>
       </c>
       <c r="O2" s="17">
-        <f t="shared" ref="O2:O11" si="6">ROUND(IMDIV(G2,H2),2)</f>
-        <v>80.650000000000006</v>
+        <f>ROUND(IMDIV(G2,H2),2)</f>
+        <v>82.1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>28</v>
@@ -721,56 +730,56 @@
         <v>22</v>
       </c>
       <c r="B3" s="3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5332</v>
+      </c>
+      <c r="H3" s="3">
+        <v>71</v>
+      </c>
+      <c r="I3" s="17">
+        <f>ROUND(IMDIV(B3,H3),2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="J3" s="17">
+        <f>ROUND(IMDIV(D3,H3),2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K3" s="17">
+        <f>ROUND(IMDIV(E3,H3),2)</f>
+        <v>2.54</v>
+      </c>
+      <c r="L3" s="17">
+        <f>ROUND(IMDIV(F3,H3),2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="17">
+        <f>ROUND(IMDIV(B3,D3),2)</f>
+        <v>1.07</v>
+      </c>
+      <c r="N3" s="17">
+        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+        <v>43.18</v>
+      </c>
+      <c r="O3" s="17">
+        <f>ROUND(IMDIV(G3,H3),2)</f>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="3">
-        <v>139</v>
-      </c>
-      <c r="F3" s="3">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4331</v>
-      </c>
-      <c r="H3" s="3">
-        <v>60</v>
-      </c>
-      <c r="I3" s="17">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="J3" s="17">
-        <f t="shared" si="1"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K3" s="17">
-        <f t="shared" si="2"/>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="L3" s="17">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="17">
-        <f t="shared" si="4"/>
-        <v>1.03</v>
-      </c>
-      <c r="N3" s="17">
-        <f t="shared" si="5"/>
-        <v>41.67</v>
-      </c>
-      <c r="O3" s="17">
-        <f t="shared" si="6"/>
-        <v>72.180000000000007</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>28</v>
@@ -781,56 +790,56 @@
         <v>27</v>
       </c>
       <c r="B4" s="9">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C4" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" s="9">
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="F4" s="9">
         <v>21</v>
       </c>
       <c r="G4" s="9">
-        <v>7255</v>
+        <v>7905</v>
       </c>
       <c r="H4" s="9">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I4" s="18">
         <f>ROUND(IMDIV(B4,H4),2)</f>
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="J4" s="18">
         <f>ROUND(IMDIV(D4,H4),2)</f>
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="K4" s="18">
         <f>ROUND(IMDIV(E4,H4),2)</f>
-        <v>7.13</v>
+        <v>7.34</v>
       </c>
       <c r="L4" s="18">
         <f>ROUND(IMDIV(F4,H4),2)</f>
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="M4" s="18">
         <f>ROUND(IMDIV(B4,D4),2)</f>
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="N4" s="18">
         <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>46.88</v>
+        <v>45.07</v>
       </c>
       <c r="O4" s="18">
         <f>ROUND(IMDIV(G4,H4),2)</f>
-        <v>90.69</v>
+        <v>85</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>28</v>
@@ -841,418 +850,418 @@
         <v>20</v>
       </c>
       <c r="B5" s="9">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F5" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="9">
-        <v>5000</v>
+        <v>5858</v>
       </c>
       <c r="H5" s="9">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I5" s="18">
         <f>ROUND(IMDIV(B5,H5),2)</f>
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J5" s="18">
         <f>ROUND(IMDIV(D5,H5),2)</f>
-        <v>0.5</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K5" s="18">
         <f>ROUND(IMDIV(E5,H5),2)</f>
-        <v>3.88</v>
+        <v>3.35</v>
       </c>
       <c r="L5" s="18">
         <f>ROUND(IMDIV(F5,H5),2)</f>
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="M5" s="18">
         <f>ROUND(IMDIV(B5,D5),2)</f>
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="N5" s="18">
         <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>60.419999999999995</v>
+        <v>59.260000000000005</v>
       </c>
       <c r="O5" s="18">
         <f>ROUND(IMDIV(G5,H5),2)</f>
-        <v>62.5</v>
+        <v>62.99</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="11">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11">
+        <v>41</v>
+      </c>
+      <c r="E6" s="11">
+        <v>384</v>
+      </c>
+      <c r="F6" s="11">
         <v>17</v>
       </c>
-      <c r="B6" s="22">
-        <v>52</v>
-      </c>
-      <c r="C6" s="22">
-        <v>25</v>
-      </c>
-      <c r="D6" s="22">
-        <v>38</v>
-      </c>
-      <c r="E6" s="22">
-        <v>159</v>
-      </c>
-      <c r="F6" s="22">
-        <v>10</v>
-      </c>
-      <c r="G6" s="22">
-        <v>5828</v>
-      </c>
-      <c r="H6" s="22">
-        <v>67</v>
-      </c>
-      <c r="I6" s="20">
-        <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-      <c r="J6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K6" s="20">
-        <f t="shared" si="2"/>
-        <v>2.37</v>
-      </c>
-      <c r="L6" s="20">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="M6" s="20">
-        <f t="shared" si="4"/>
-        <v>1.37</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="5"/>
-        <v>48.08</v>
-      </c>
-      <c r="O6" s="20">
-        <f t="shared" si="6"/>
-        <v>86.99</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="22" t="s">
+      <c r="G6" s="11">
+        <v>6019</v>
+      </c>
+      <c r="H6" s="11">
+        <v>73</v>
+      </c>
+      <c r="I6" s="15">
+        <f>ROUND(IMDIV(B6,H6),2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="J6" s="15">
+        <f>ROUND(IMDIV(D6,H6),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K6" s="15">
+        <f>ROUND(IMDIV(E6,H6),2)</f>
+        <v>5.26</v>
+      </c>
+      <c r="L6" s="15">
+        <f>ROUND(IMDIV(F6,H6),2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="M6" s="15">
+        <f>ROUND(IMDIV(B6,D6),2)</f>
+        <v>1.32</v>
+      </c>
+      <c r="N6" s="15">
+        <f>ROUND(IMDIV(C6,B6),4)*100</f>
+        <v>64.81</v>
+      </c>
+      <c r="O6" s="15">
+        <f>ROUND(IMDIV(G6,H6),2)</f>
+        <v>82.45</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="22">
-        <v>40</v>
-      </c>
-      <c r="C7" s="22">
-        <v>20</v>
-      </c>
-      <c r="D7" s="22">
-        <v>41</v>
-      </c>
-      <c r="E7" s="22">
-        <v>77</v>
-      </c>
-      <c r="F7" s="22">
-        <v>11</v>
-      </c>
-      <c r="G7" s="22">
-        <v>4531</v>
-      </c>
-      <c r="H7" s="22">
-        <v>67</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="1"/>
-        <v>0.61</v>
-      </c>
-      <c r="K7" s="20">
-        <f t="shared" si="2"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L7" s="20">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" si="4"/>
-        <v>0.98</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="5"/>
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11">
         <v>50</v>
       </c>
-      <c r="O7" s="20">
-        <f t="shared" si="6"/>
-        <v>67.63</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="22" t="s">
+      <c r="C7" s="11">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11">
+        <v>38</v>
+      </c>
+      <c r="E7" s="11">
+        <v>152</v>
+      </c>
+      <c r="F7" s="11">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5922</v>
+      </c>
+      <c r="H7" s="11">
+        <v>73</v>
+      </c>
+      <c r="I7" s="15">
+        <f>ROUND(IMDIV(B7,H7),2)</f>
+        <v>0.68</v>
+      </c>
+      <c r="J7" s="15">
+        <f>ROUND(IMDIV(D7,H7),2)</f>
+        <v>0.52</v>
+      </c>
+      <c r="K7" s="15">
+        <f>ROUND(IMDIV(E7,H7),2)</f>
+        <v>2.08</v>
+      </c>
+      <c r="L7" s="15">
+        <f>ROUND(IMDIV(F7,H7),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="M7" s="15">
+        <f>ROUND(IMDIV(B7,D7),2)</f>
+        <v>1.32</v>
+      </c>
+      <c r="N7" s="15">
+        <f>ROUND(IMDIV(C7,B7),4)*100</f>
+        <v>48</v>
+      </c>
+      <c r="O7" s="15">
+        <f>ROUND(IMDIV(G7,H7),2)</f>
+        <v>81.12</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
         <v>44</v>
       </c>
-      <c r="C8" s="11">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11">
-        <v>325</v>
-      </c>
-      <c r="F8" s="11">
-        <v>17</v>
-      </c>
-      <c r="G8" s="11">
-        <v>5040</v>
-      </c>
-      <c r="H8" s="11">
-        <v>62</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="E8" s="2">
+        <v>176</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6748</v>
+      </c>
+      <c r="H8" s="2">
+        <v>86</v>
+      </c>
+      <c r="I8" s="16">
         <f>ROUND(IMDIV(B8,H8),2)</f>
-        <v>0.71</v>
-      </c>
-      <c r="J8" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="J8" s="16">
         <f>ROUND(IMDIV(D8,H8),2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K8" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="K8" s="16">
         <f>ROUND(IMDIV(E8,H8),2)</f>
-        <v>5.24</v>
-      </c>
-      <c r="L8" s="15">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L8" s="16">
         <f>ROUND(IMDIV(F8,H8),2)</f>
-        <v>0.27</v>
-      </c>
-      <c r="M8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="16">
         <f>ROUND(IMDIV(B8,D8),2)</f>
-        <v>1.22</v>
-      </c>
-      <c r="N8" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="N8" s="16">
         <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>65.91</v>
-      </c>
-      <c r="O8" s="15">
+        <v>28.57</v>
+      </c>
+      <c r="O8" s="16">
         <f>ROUND(IMDIV(G8,H8),2)</f>
-        <v>81.290000000000006</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="11" t="s">
+        <v>78.47</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
-        <v>34</v>
-      </c>
-      <c r="E9" s="11">
-        <v>107</v>
-      </c>
-      <c r="F9" s="11">
-        <v>14</v>
-      </c>
-      <c r="G9" s="11">
-        <v>4866</v>
-      </c>
-      <c r="H9" s="11">
-        <v>62</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="B9" s="2">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6118</v>
+      </c>
+      <c r="H9" s="2">
+        <v>86</v>
+      </c>
+      <c r="I9" s="16">
         <f>ROUND(IMDIV(B9,H9),2)</f>
-        <v>0.66</v>
-      </c>
-      <c r="J9" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="J9" s="16">
         <f>ROUND(IMDIV(D9,H9),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K9" s="15">
+        <v>0.63</v>
+      </c>
+      <c r="K9" s="16">
         <f>ROUND(IMDIV(E9,H9),2)</f>
-        <v>1.73</v>
-      </c>
-      <c r="L9" s="15">
+        <v>0.78</v>
+      </c>
+      <c r="L9" s="16">
         <f>ROUND(IMDIV(F9,H9),2)</f>
-        <v>0.23</v>
-      </c>
-      <c r="M9" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="M9" s="16">
         <f>ROUND(IMDIV(B9,D9),2)</f>
-        <v>1.21</v>
-      </c>
-      <c r="N9" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="N9" s="16">
         <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>46.339999999999996</v>
-      </c>
-      <c r="O9" s="15">
+        <v>52.94</v>
+      </c>
+      <c r="O9" s="16">
         <f>ROUND(IMDIV(G9,H9),2)</f>
-        <v>78.48</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="11" t="s">
+        <v>71.14</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2">
-        <v>176</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5305</v>
-      </c>
-      <c r="H10" s="2">
-        <v>73</v>
-      </c>
-      <c r="I10" s="16">
-        <f t="shared" si="0"/>
-        <v>0.63</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" si="2"/>
-        <v>2.41</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M10" s="16">
-        <f t="shared" si="4"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N10" s="16">
-        <f t="shared" si="5"/>
-        <v>30.43</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="6"/>
-        <v>72.67</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22">
+        <v>57</v>
+      </c>
+      <c r="C10" s="22">
+        <v>27</v>
+      </c>
+      <c r="D10" s="22">
+        <v>47</v>
+      </c>
+      <c r="E10" s="22">
+        <v>159</v>
+      </c>
+      <c r="F10" s="22">
+        <v>10</v>
+      </c>
+      <c r="G10" s="22">
+        <v>6268</v>
+      </c>
+      <c r="H10" s="22">
+        <v>78</v>
+      </c>
+      <c r="I10" s="20">
+        <f>ROUND(IMDIV(B10,H10),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="J10" s="20">
+        <f>ROUND(IMDIV(D10,H10),2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="20">
+        <f>ROUND(IMDIV(E10,H10),2)</f>
+        <v>2.04</v>
+      </c>
+      <c r="L10" s="20">
+        <f>ROUND(IMDIV(F10,H10),2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="M10" s="20">
+        <f>ROUND(IMDIV(B10,D10),2)</f>
+        <v>1.21</v>
+      </c>
+      <c r="N10" s="20">
+        <f>ROUND(IMDIV(C10,B10),4)*100</f>
+        <v>47.370000000000005</v>
+      </c>
+      <c r="O10" s="20">
+        <f>ROUND(IMDIV(G10,H10),2)</f>
+        <v>80.36</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2">
-        <v>67</v>
-      </c>
-      <c r="F11" s="2">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5416</v>
-      </c>
-      <c r="H11" s="2">
-        <v>73</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
-        <v>0.64</v>
-      </c>
-      <c r="J11" s="16">
-        <f t="shared" si="1"/>
-        <v>0.63</v>
-      </c>
-      <c r="K11" s="16">
-        <f t="shared" si="2"/>
-        <v>0.92</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="M11" s="16">
-        <f t="shared" si="4"/>
-        <v>1.02</v>
-      </c>
-      <c r="N11" s="16">
-        <f t="shared" si="5"/>
-        <v>51.06</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="6"/>
-        <v>74.19</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+      <c r="A11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43</v>
+      </c>
+      <c r="C11" s="22">
+        <v>20</v>
+      </c>
+      <c r="D11" s="22">
+        <v>51</v>
+      </c>
+      <c r="E11" s="22">
+        <v>115</v>
+      </c>
+      <c r="F11" s="22">
+        <v>15</v>
+      </c>
+      <c r="G11" s="22">
+        <v>4982</v>
+      </c>
+      <c r="H11" s="22">
+        <v>78</v>
+      </c>
+      <c r="I11" s="20">
+        <f>ROUND(IMDIV(B11,H11),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J11" s="20">
+        <f>ROUND(IMDIV(D11,H11),2)</f>
+        <v>0.65</v>
+      </c>
+      <c r="K11" s="20">
+        <f>ROUND(IMDIV(E11,H11),2)</f>
+        <v>1.47</v>
+      </c>
+      <c r="L11" s="20">
+        <f>ROUND(IMDIV(F11,H11),2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="M11" s="20">
+        <f>ROUND(IMDIV(B11,D11),2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="N11" s="20">
+        <f>ROUND(IMDIV(C11,B11),4)*100</f>
+        <v>46.51</v>
+      </c>
+      <c r="O11" s="20">
+        <f>ROUND(IMDIV(G11,H11),2)</f>
+        <v>63.87</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1310,7 +1319,7 @@
         <v>95.84</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>28</v>
@@ -1370,7 +1379,7 @@
         <v>32.6</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="13" t="s">
         <v>28</v>
@@ -1381,37 +1390,37 @@
         <v>25</v>
       </c>
       <c r="B14" s="24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C14" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="24">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E14" s="24">
         <v>110</v>
       </c>
       <c r="F14" s="24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" s="24">
-        <v>2514</v>
+        <v>3449</v>
       </c>
       <c r="H14" s="24">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I14" s="4">
         <f>ROUND(IMDIV(B14,H14),2)</f>
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="J14" s="4">
         <f>ROUND(IMDIV(D14,H14),2)</f>
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K14" s="4">
         <f>ROUND(IMDIV(E14,H14),2)</f>
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="L14" s="4">
         <f>ROUND(IMDIV(F14,H14),2)</f>
@@ -1419,15 +1428,15 @@
       </c>
       <c r="M14" s="4">
         <f>ROUND(IMDIV(B14,D14),2)</f>
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="N14" s="4">
         <f>ROUND(IMDIV(C14,B14),4)*100</f>
-        <v>27.27</v>
+        <v>23.53</v>
       </c>
       <c r="O14" s="4">
         <f>ROUND(IMDIV(G14,H14),2)</f>
-        <v>45.71</v>
+        <v>52.26</v>
       </c>
       <c r="P14" s="23" t="s">
         <v>32</v>
@@ -1441,53 +1450,53 @@
         <v>29</v>
       </c>
       <c r="B15" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="24">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E15" s="23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="24">
-        <v>2583</v>
+        <v>2902</v>
       </c>
       <c r="H15" s="24">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I15" s="4">
         <f>ROUND(IMDIV(B15,H15),2)</f>
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="J15" s="4">
         <f>ROUND(IMDIV(D15,H15),2)</f>
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K15" s="4">
         <f>ROUND(IMDIV(E15,H15),2)</f>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L15" s="4">
         <f>ROUND(IMDIV(F15,H15),2)</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M15" s="4">
         <f>ROUND(IMDIV(B15,D15),2)</f>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="N15" s="4">
         <f>ROUND(IMDIV(C15,B15),4)*100</f>
-        <v>28.57</v>
+        <v>30.43</v>
       </c>
       <c r="O15" s="4">
         <f>ROUND(IMDIV(G15,H15),2)</f>
-        <v>46.96</v>
+        <v>43.97</v>
       </c>
       <c r="P15" s="23" t="s">
         <v>32</v>
@@ -1498,7 +1507,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
-    <sortCondition sortBy="cellColor" ref="Q14:Q15" dxfId="0"/>
+    <sortCondition ref="P1:P15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444B1E8-16E4-4C77-B35D-30BEA233FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB129AA-1E85-46B1-A2DF-A9F5F31A6F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="765" windowWidth="16620" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>player</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>1st-4th</t>
+  </si>
+  <si>
+    <t>1st-2nd</t>
+  </si>
+  <si>
+    <t>3rd-4th</t>
   </si>
 </sst>
 </file>
@@ -325,8 +331,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -602,17 +608,17 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="15" width="8.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" customWidth="1"/>
+    <col min="17" max="26" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -665,487 +671,487 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
+        <v>176</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6748</v>
+      </c>
+      <c r="H2" s="2">
+        <v>86</v>
+      </c>
+      <c r="I2" s="16">
+        <f>ROUND(IMDIV(B2,H2),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="J2" s="16">
+        <f>ROUND(IMDIV(D2,H2),2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="K2" s="16">
+        <f>ROUND(IMDIV(E2,H2),2)</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L2" s="16">
+        <f>ROUND(IMDIV(F2,H2),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="M2" s="16">
+        <f>ROUND(IMDIV(B2,D2),2)</f>
+        <v>1.43</v>
+      </c>
+      <c r="N2" s="16">
+        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>28.57</v>
+      </c>
+      <c r="O2" s="16">
+        <f>ROUND(IMDIV(G2,H2),2)</f>
+        <v>78.47</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6118</v>
+      </c>
+      <c r="H3" s="2">
+        <v>86</v>
+      </c>
+      <c r="I3" s="16">
+        <f>ROUND(IMDIV(B3,H3),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="J3" s="16">
+        <f>ROUND(IMDIV(D3,H3),2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="K3" s="16">
+        <f>ROUND(IMDIV(E3,H3),2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="L3" s="16">
+        <f>ROUND(IMDIV(F3,H3),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="M3" s="16">
+        <f>ROUND(IMDIV(B3,D3),2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="N3" s="16">
+        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+        <v>52.94</v>
+      </c>
+      <c r="O3" s="16">
+        <f>ROUND(IMDIV(G3,H3),2)</f>
+        <v>71.14</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="11">
+        <v>82</v>
+      </c>
+      <c r="C4" s="11">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11">
+        <v>67</v>
+      </c>
+      <c r="E4" s="11">
+        <v>506</v>
+      </c>
+      <c r="F4" s="11">
         <v>21</v>
       </c>
-      <c r="B2" s="3">
+      <c r="G4" s="11">
+        <v>9496</v>
+      </c>
+      <c r="H4" s="11">
+        <v>119</v>
+      </c>
+      <c r="I4" s="15">
+        <f>ROUND(IMDIV(B4,H4),2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="J4" s="15">
+        <f>ROUND(IMDIV(D4,H4),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K4" s="15">
+        <f>ROUND(IMDIV(E4,H4),2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="L4" s="15">
+        <f>ROUND(IMDIV(F4,H4),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="M4" s="15">
+        <f>ROUND(IMDIV(B4,D4),2)</f>
+        <v>1.22</v>
+      </c>
+      <c r="N4" s="15">
+        <f>ROUND(IMDIV(C4,B4),4)*100</f>
+        <v>62.2</v>
+      </c>
+      <c r="O4" s="15">
+        <f>ROUND(IMDIV(G4,H4),2)</f>
+        <v>79.8</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>87</v>
+      </c>
+      <c r="C5" s="11">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11">
+        <v>65</v>
+      </c>
+      <c r="E5" s="11">
+        <v>384</v>
+      </c>
+      <c r="F5" s="11">
+        <v>22</v>
+      </c>
+      <c r="G5" s="11">
+        <v>9576</v>
+      </c>
+      <c r="H5" s="11">
+        <v>119</v>
+      </c>
+      <c r="I5" s="15">
+        <f>ROUND(IMDIV(B5,H5),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="J5" s="15">
+        <f>ROUND(IMDIV(D5,H5),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K5" s="15">
+        <f>ROUND(IMDIV(E5,H5),2)</f>
+        <v>3.23</v>
+      </c>
+      <c r="L5" s="15">
+        <f>ROUND(IMDIV(F5,H5),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="M5" s="15">
+        <f>ROUND(IMDIV(B5,D5),2)</f>
+        <v>1.34</v>
+      </c>
+      <c r="N5" s="15">
+        <f>ROUND(IMDIV(C5,B5),4)*100</f>
+        <v>43.68</v>
+      </c>
+      <c r="O5" s="15">
+        <f>ROUND(IMDIV(G5,H5),2)</f>
+        <v>80.47</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
         <v>59</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C6" s="3">
         <v>31</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D6" s="3">
         <v>29</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E6" s="3">
         <v>304</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F6" s="3">
         <v>21</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G6" s="3">
         <v>5829</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H6" s="3">
         <v>71</v>
       </c>
-      <c r="I2" s="17">
-        <f>ROUND(IMDIV(B2,H2),2)</f>
+      <c r="I6" s="17">
+        <f>ROUND(IMDIV(B6,H6),2)</f>
         <v>0.83</v>
       </c>
-      <c r="J2" s="17">
-        <f>ROUND(IMDIV(D2,H2),2)</f>
+      <c r="J6" s="17">
+        <f>ROUND(IMDIV(D6,H6),2)</f>
         <v>0.41</v>
       </c>
-      <c r="K2" s="17">
-        <f>ROUND(IMDIV(E2,H2),2)</f>
+      <c r="K6" s="17">
+        <f>ROUND(IMDIV(E6,H6),2)</f>
         <v>4.28</v>
       </c>
-      <c r="L2" s="17">
-        <f>ROUND(IMDIV(F2,H2),2)</f>
+      <c r="L6" s="17">
+        <f>ROUND(IMDIV(F6,H6),2)</f>
         <v>0.3</v>
       </c>
-      <c r="M2" s="17">
-        <f>ROUND(IMDIV(B2,D2),2)</f>
+      <c r="M6" s="17">
+        <f>ROUND(IMDIV(B6,D6),2)</f>
         <v>2.0299999999999998</v>
       </c>
-      <c r="N2" s="17">
-        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+      <c r="N6" s="17">
+        <f>ROUND(IMDIV(C6,B6),4)*100</f>
         <v>52.54</v>
       </c>
-      <c r="O2" s="17">
-        <f>ROUND(IMDIV(G2,H2),2)</f>
+      <c r="O6" s="17">
+        <f>ROUND(IMDIV(G6,H6),2)</f>
         <v>82.1</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="7" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B7" s="3">
         <v>44</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C7" s="3">
         <v>19</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D7" s="3">
         <v>41</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E7" s="3">
         <v>180</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F7" s="3">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G7" s="3">
         <v>5332</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H7" s="3">
         <v>71</v>
       </c>
-      <c r="I3" s="17">
-        <f>ROUND(IMDIV(B3,H3),2)</f>
+      <c r="I7" s="17">
+        <f>ROUND(IMDIV(B7,H7),2)</f>
         <v>0.62</v>
       </c>
-      <c r="J3" s="17">
-        <f>ROUND(IMDIV(D3,H3),2)</f>
+      <c r="J7" s="17">
+        <f>ROUND(IMDIV(D7,H7),2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="K3" s="17">
-        <f>ROUND(IMDIV(E3,H3),2)</f>
+      <c r="K7" s="17">
+        <f>ROUND(IMDIV(E7,H7),2)</f>
         <v>2.54</v>
       </c>
-      <c r="L3" s="17">
-        <f>ROUND(IMDIV(F3,H3),2)</f>
+      <c r="L7" s="17">
+        <f>ROUND(IMDIV(F7,H7),2)</f>
         <v>0.25</v>
       </c>
-      <c r="M3" s="17">
-        <f>ROUND(IMDIV(B3,D3),2)</f>
+      <c r="M7" s="17">
+        <f>ROUND(IMDIV(B7,D7),2)</f>
         <v>1.07</v>
       </c>
-      <c r="N3" s="17">
-        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+      <c r="N7" s="17">
+        <f>ROUND(IMDIV(C7,B7),4)*100</f>
         <v>43.18</v>
       </c>
-      <c r="O3" s="17">
-        <f>ROUND(IMDIV(G3,H3),2)</f>
+      <c r="O7" s="17">
+        <f>ROUND(IMDIV(G7,H7),2)</f>
         <v>75.099999999999994</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="8" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9">
-        <v>71</v>
-      </c>
-      <c r="C4" s="9">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9">
-        <v>47</v>
-      </c>
-      <c r="E4" s="9">
-        <v>683</v>
-      </c>
-      <c r="F4" s="9">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9">
-        <v>7905</v>
-      </c>
-      <c r="H4" s="9">
-        <v>93</v>
-      </c>
-      <c r="I4" s="18">
-        <f>ROUND(IMDIV(B4,H4),2)</f>
+      <c r="B8" s="9">
+        <v>105</v>
+      </c>
+      <c r="C8" s="9">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9">
+        <v>78</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1160</v>
+      </c>
+      <c r="F8" s="9">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9">
+        <v>12319</v>
+      </c>
+      <c r="H8" s="9">
+        <v>139</v>
+      </c>
+      <c r="I8" s="18">
+        <f>ROUND(IMDIV(B8,H8),2)</f>
         <v>0.76</v>
       </c>
-      <c r="J4" s="18">
-        <f>ROUND(IMDIV(D4,H4),2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="K4" s="18">
-        <f>ROUND(IMDIV(E4,H4),2)</f>
-        <v>7.34</v>
-      </c>
-      <c r="L4" s="18">
-        <f>ROUND(IMDIV(F4,H4),2)</f>
-        <v>0.23</v>
-      </c>
-      <c r="M4" s="18">
-        <f>ROUND(IMDIV(B4,D4),2)</f>
-        <v>1.51</v>
-      </c>
-      <c r="N4" s="18">
-        <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>45.07</v>
-      </c>
-      <c r="O4" s="18">
-        <f>ROUND(IMDIV(G4,H4),2)</f>
-        <v>85</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="J8" s="18">
+        <f>ROUND(IMDIV(D8,H8),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K8" s="18">
+        <f>ROUND(IMDIV(E8,H8),2)</f>
+        <v>8.35</v>
+      </c>
+      <c r="L8" s="18">
+        <f>ROUND(IMDIV(F8,H8),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="M8" s="18">
+        <f>ROUND(IMDIV(B8,D8),2)</f>
+        <v>1.35</v>
+      </c>
+      <c r="N8" s="18">
+        <f>ROUND(IMDIV(C8,B8),4)*100</f>
+        <v>49.519999999999996</v>
+      </c>
+      <c r="O8" s="18">
+        <f>ROUND(IMDIV(G8,H8),2)</f>
+        <v>88.63</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="9" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9">
-        <v>32</v>
-      </c>
-      <c r="D5" s="9">
-        <v>52</v>
-      </c>
-      <c r="E5" s="9">
-        <v>312</v>
-      </c>
-      <c r="F5" s="9">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5858</v>
-      </c>
-      <c r="H5" s="9">
-        <v>93</v>
-      </c>
-      <c r="I5" s="18">
-        <f>ROUND(IMDIV(B5,H5),2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J5" s="18">
-        <f>ROUND(IMDIV(D5,H5),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K5" s="18">
-        <f>ROUND(IMDIV(E5,H5),2)</f>
-        <v>3.35</v>
-      </c>
-      <c r="L5" s="18">
-        <f>ROUND(IMDIV(F5,H5),2)</f>
-        <v>0.23</v>
-      </c>
-      <c r="M5" s="18">
-        <f>ROUND(IMDIV(B5,D5),2)</f>
-        <v>1.04</v>
-      </c>
-      <c r="N5" s="18">
-        <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>59.260000000000005</v>
-      </c>
-      <c r="O5" s="18">
-        <f>ROUND(IMDIV(G5,H5),2)</f>
-        <v>62.99</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="9" t="s">
+      <c r="B9" s="9">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9">
+        <v>86</v>
+      </c>
+      <c r="E9" s="9">
+        <v>353</v>
+      </c>
+      <c r="F9" s="9">
+        <v>27</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7930</v>
+      </c>
+      <c r="H9" s="9">
+        <v>139</v>
+      </c>
+      <c r="I9" s="18">
+        <f>ROUND(IMDIV(B9,H9),2)</f>
+        <v>0.53</v>
+      </c>
+      <c r="J9" s="18">
+        <f>ROUND(IMDIV(D9,H9),2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="K9" s="18">
+        <f>ROUND(IMDIV(E9,H9),2)</f>
+        <v>2.54</v>
+      </c>
+      <c r="L9" s="18">
+        <f>ROUND(IMDIV(F9,H9),2)</f>
+        <v>0.19</v>
+      </c>
+      <c r="M9" s="18">
+        <f>ROUND(IMDIV(B9,D9),2)</f>
+        <v>0.85</v>
+      </c>
+      <c r="N9" s="18">
+        <f>ROUND(IMDIV(C9,B9),4)*100</f>
+        <v>50.68</v>
+      </c>
+      <c r="O9" s="18">
+        <f>ROUND(IMDIV(G9,H9),2)</f>
+        <v>57.05</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="11">
-        <v>54</v>
-      </c>
-      <c r="C6" s="11">
-        <v>35</v>
-      </c>
-      <c r="D6" s="11">
-        <v>41</v>
-      </c>
-      <c r="E6" s="11">
-        <v>384</v>
-      </c>
-      <c r="F6" s="11">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11">
-        <v>6019</v>
-      </c>
-      <c r="H6" s="11">
-        <v>73</v>
-      </c>
-      <c r="I6" s="15">
-        <f>ROUND(IMDIV(B6,H6),2)</f>
-        <v>0.74</v>
-      </c>
-      <c r="J6" s="15">
-        <f>ROUND(IMDIV(D6,H6),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K6" s="15">
-        <f>ROUND(IMDIV(E6,H6),2)</f>
-        <v>5.26</v>
-      </c>
-      <c r="L6" s="15">
-        <f>ROUND(IMDIV(F6,H6),2)</f>
-        <v>0.23</v>
-      </c>
-      <c r="M6" s="15">
-        <f>ROUND(IMDIV(B6,D6),2)</f>
-        <v>1.32</v>
-      </c>
-      <c r="N6" s="15">
-        <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>64.81</v>
-      </c>
-      <c r="O6" s="15">
-        <f>ROUND(IMDIV(G6,H6),2)</f>
-        <v>82.45</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11">
-        <v>50</v>
-      </c>
-      <c r="C7" s="11">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11">
-        <v>38</v>
-      </c>
-      <c r="E7" s="11">
-        <v>152</v>
-      </c>
-      <c r="F7" s="11">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11">
-        <v>5922</v>
-      </c>
-      <c r="H7" s="11">
-        <v>73</v>
-      </c>
-      <c r="I7" s="15">
-        <f>ROUND(IMDIV(B7,H7),2)</f>
-        <v>0.68</v>
-      </c>
-      <c r="J7" s="15">
-        <f>ROUND(IMDIV(D7,H7),2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="K7" s="15">
-        <f>ROUND(IMDIV(E7,H7),2)</f>
-        <v>2.08</v>
-      </c>
-      <c r="L7" s="15">
-        <f>ROUND(IMDIV(F7,H7),2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="M7" s="15">
-        <f>ROUND(IMDIV(B7,D7),2)</f>
-        <v>1.32</v>
-      </c>
-      <c r="N7" s="15">
-        <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>48</v>
-      </c>
-      <c r="O7" s="15">
-        <f>ROUND(IMDIV(G7,H7),2)</f>
-        <v>81.12</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2">
-        <v>176</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>6748</v>
-      </c>
-      <c r="H8" s="2">
-        <v>86</v>
-      </c>
-      <c r="I8" s="16">
-        <f>ROUND(IMDIV(B8,H8),2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="J8" s="16">
-        <f>ROUND(IMDIV(D8,H8),2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="K8" s="16">
-        <f>ROUND(IMDIV(E8,H8),2)</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L8" s="16">
-        <f>ROUND(IMDIV(F8,H8),2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="M8" s="16">
-        <f>ROUND(IMDIV(B8,D8),2)</f>
-        <v>1.43</v>
-      </c>
-      <c r="N8" s="16">
-        <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>28.57</v>
-      </c>
-      <c r="O8" s="16">
-        <f>ROUND(IMDIV(G8,H8),2)</f>
-        <v>78.47</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2">
-        <v>67</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6118</v>
-      </c>
-      <c r="H9" s="2">
-        <v>86</v>
-      </c>
-      <c r="I9" s="16">
-        <f>ROUND(IMDIV(B9,H9),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="J9" s="16">
-        <f>ROUND(IMDIV(D9,H9),2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="K9" s="16">
-        <f>ROUND(IMDIV(E9,H9),2)</f>
-        <v>0.78</v>
-      </c>
-      <c r="L9" s="16">
-        <f>ROUND(IMDIV(F9,H9),2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="M9" s="16">
-        <f>ROUND(IMDIV(B9,D9),2)</f>
-        <v>0.94</v>
-      </c>
-      <c r="N9" s="16">
-        <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>52.94</v>
-      </c>
-      <c r="O9" s="16">
-        <f>ROUND(IMDIV(G9,H9),2)</f>
-        <v>71.14</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>25</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1513,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
-    <sortCondition ref="P1:P15"/>
+    <sortCondition sortBy="cellColor" ref="P9:P15" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB129AA-1E85-46B1-A2DF-A9F5F31A6F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127ECDAB-8309-40D2-AA3C-D4805AE194E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,13 +143,13 @@
     <t>5th</t>
   </si>
   <si>
-    <t>1st-4th</t>
-  </si>
-  <si>
     <t>1st-2nd</t>
   </si>
   <si>
     <t>3rd-4th</t>
+  </si>
+  <si>
+    <t>EVP</t>
   </si>
 </sst>
 </file>
@@ -331,8 +331,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFBF4F14"/>
         </patternFill>
       </fill>
     </dxf>
@@ -608,17 +608,17 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="8.54296875" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" customWidth="1"/>
-    <col min="17" max="26" width="8.54296875" customWidth="1"/>
+    <col min="1" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="17" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -671,367 +671,367 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="11">
+        <v>82</v>
+      </c>
+      <c r="C2" s="11">
+        <v>51</v>
+      </c>
+      <c r="D2" s="11">
+        <v>67</v>
+      </c>
+      <c r="E2" s="11">
+        <v>506</v>
+      </c>
+      <c r="F2" s="11">
+        <v>21</v>
+      </c>
+      <c r="G2" s="11">
+        <v>9496</v>
+      </c>
+      <c r="H2" s="11">
+        <v>119</v>
+      </c>
+      <c r="I2" s="15">
+        <f>ROUND(IMDIV(B2,H2),2)</f>
+        <v>0.69</v>
+      </c>
+      <c r="J2" s="15">
+        <f>ROUND(IMDIV(D2,H2),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K2" s="15">
+        <f>ROUND(IMDIV(E2,H2),2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="L2" s="15">
+        <f>ROUND(IMDIV(F2,H2),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="M2" s="15">
+        <f>ROUND(IMDIV(B2,D2),2)</f>
+        <v>1.22</v>
+      </c>
+      <c r="N2" s="15">
+        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+        <v>62.2</v>
+      </c>
+      <c r="O2" s="15">
+        <f>ROUND(IMDIV(G2,H2),2)</f>
+        <v>79.8</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11">
+        <v>87</v>
+      </c>
+      <c r="C3" s="11">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11">
+        <v>65</v>
+      </c>
+      <c r="E3" s="11">
+        <v>384</v>
+      </c>
+      <c r="F3" s="11">
+        <v>22</v>
+      </c>
+      <c r="G3" s="11">
+        <v>9576</v>
+      </c>
+      <c r="H3" s="11">
+        <v>119</v>
+      </c>
+      <c r="I3" s="15">
+        <f>ROUND(IMDIV(B3,H3),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="J3" s="15">
+        <f>ROUND(IMDIV(D3,H3),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K3" s="15">
+        <f>ROUND(IMDIV(E3,H3),2)</f>
+        <v>3.23</v>
+      </c>
+      <c r="L3" s="15">
+        <f>ROUND(IMDIV(F3,H3),2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="M3" s="15">
+        <f>ROUND(IMDIV(B3,D3),2)</f>
+        <v>1.34</v>
+      </c>
+      <c r="N3" s="15">
+        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+        <v>43.68</v>
+      </c>
+      <c r="O3" s="15">
+        <f>ROUND(IMDIV(G3,H3),2)</f>
+        <v>80.47</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3">
+        <v>398</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10873</v>
+      </c>
+      <c r="H4" s="3">
+        <v>135</v>
+      </c>
+      <c r="I4" s="17">
+        <f>ROUND(IMDIV(B4,H4),2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="J4" s="17">
+        <f>ROUND(IMDIV(D4,H4),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="K4" s="17">
+        <f>ROUND(IMDIV(E4,H4),2)</f>
+        <v>2.95</v>
+      </c>
+      <c r="L4" s="17">
+        <f>ROUND(IMDIV(F4,H4),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="M4" s="17">
+        <f>ROUND(IMDIV(B4,D4),2)</f>
+        <v>1.59</v>
+      </c>
+      <c r="N4" s="17">
+        <f>ROUND(IMDIV(C4,B4),4)*100</f>
+        <v>49.519999999999996</v>
+      </c>
+      <c r="O4" s="17">
+        <f>ROUND(IMDIV(G4,H4),2)</f>
+        <v>80.540000000000006</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3">
+        <v>343</v>
+      </c>
+      <c r="F5" s="3">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9656</v>
+      </c>
+      <c r="H5" s="3">
+        <v>135</v>
+      </c>
+      <c r="I5" s="17">
+        <f>ROUND(IMDIV(B5,H5),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="J5" s="17">
+        <f>ROUND(IMDIV(D5,H5),2)</f>
+        <v>0.61</v>
+      </c>
+      <c r="K5" s="17">
+        <f>ROUND(IMDIV(E5,H5),2)</f>
+        <v>2.54</v>
+      </c>
+      <c r="L5" s="17">
+        <f>ROUND(IMDIV(F5,H5),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="17">
+        <f>ROUND(IMDIV(B5,D5),2)</f>
+        <v>0.98</v>
+      </c>
+      <c r="N5" s="17">
+        <f>ROUND(IMDIV(C5,B5),4)*100</f>
+        <v>42.5</v>
+      </c>
+      <c r="O5" s="17">
+        <f>ROUND(IMDIV(G5,H5),2)</f>
+        <v>71.53</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2">
-        <v>176</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6748</v>
-      </c>
-      <c r="H2" s="2">
-        <v>86</v>
-      </c>
-      <c r="I2" s="16">
-        <f>ROUND(IMDIV(B2,H2),2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="J2" s="16">
-        <f>ROUND(IMDIV(D2,H2),2)</f>
+      <c r="B6" s="2">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2">
+        <v>241</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12488</v>
+      </c>
+      <c r="H6" s="2">
+        <v>150</v>
+      </c>
+      <c r="I6" s="16">
+        <f>ROUND(IMDIV(B6,H6),2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="J6" s="16">
+        <f>ROUND(IMDIV(D6,H6),2)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K6" s="16">
+        <f>ROUND(IMDIV(E6,H6),2)</f>
+        <v>1.61</v>
+      </c>
+      <c r="L6" s="16">
+        <f>ROUND(IMDIV(F6,H6),2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="16">
+        <f>ROUND(IMDIV(B6,D6),2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="N6" s="16">
+        <f>ROUND(IMDIV(C6,B6),4)*100</f>
+        <v>34.479999999999997</v>
+      </c>
+      <c r="O6" s="16">
+        <f>ROUND(IMDIV(G6,H6),2)</f>
+        <v>83.25</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2">
+        <v>162</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9484</v>
+      </c>
+      <c r="H7" s="2">
+        <v>150</v>
+      </c>
+      <c r="I7" s="16">
+        <f>ROUND(IMDIV(B7,H7),2)</f>
         <v>0.51</v>
       </c>
-      <c r="K2" s="16">
-        <f>ROUND(IMDIV(E2,H2),2)</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L2" s="16">
-        <f>ROUND(IMDIV(F2,H2),2)</f>
-        <v>0.05</v>
-      </c>
-      <c r="M2" s="16">
-        <f>ROUND(IMDIV(B2,D2),2)</f>
-        <v>1.43</v>
-      </c>
-      <c r="N2" s="16">
-        <f>ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>28.57</v>
-      </c>
-      <c r="O2" s="16">
-        <f>ROUND(IMDIV(G2,H2),2)</f>
-        <v>78.47</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="J7" s="16">
+        <f>ROUND(IMDIV(D7,H7),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="K7" s="16">
+        <f>ROUND(IMDIV(E7,H7),2)</f>
+        <v>1.08</v>
+      </c>
+      <c r="L7" s="16">
+        <f>ROUND(IMDIV(F7,H7),2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="16">
+        <f>ROUND(IMDIV(B7,D7),2)</f>
+        <v>0.86</v>
+      </c>
+      <c r="N7" s="16">
+        <f>ROUND(IMDIV(C7,B7),4)*100</f>
+        <v>50</v>
+      </c>
+      <c r="O7" s="16">
+        <f>ROUND(IMDIV(G7,H7),2)</f>
+        <v>63.23</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6118</v>
-      </c>
-      <c r="H3" s="2">
-        <v>86</v>
-      </c>
-      <c r="I3" s="16">
-        <f>ROUND(IMDIV(B3,H3),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="J3" s="16">
-        <f>ROUND(IMDIV(D3,H3),2)</f>
-        <v>0.63</v>
-      </c>
-      <c r="K3" s="16">
-        <f>ROUND(IMDIV(E3,H3),2)</f>
-        <v>0.78</v>
-      </c>
-      <c r="L3" s="16">
-        <f>ROUND(IMDIV(F3,H3),2)</f>
-        <v>0.09</v>
-      </c>
-      <c r="M3" s="16">
-        <f>ROUND(IMDIV(B3,D3),2)</f>
-        <v>0.94</v>
-      </c>
-      <c r="N3" s="16">
-        <f>ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>52.94</v>
-      </c>
-      <c r="O3" s="16">
-        <f>ROUND(IMDIV(G3,H3),2)</f>
-        <v>71.14</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="11">
-        <v>82</v>
-      </c>
-      <c r="C4" s="11">
-        <v>51</v>
-      </c>
-      <c r="D4" s="11">
-        <v>67</v>
-      </c>
-      <c r="E4" s="11">
-        <v>506</v>
-      </c>
-      <c r="F4" s="11">
-        <v>21</v>
-      </c>
-      <c r="G4" s="11">
-        <v>9496</v>
-      </c>
-      <c r="H4" s="11">
-        <v>119</v>
-      </c>
-      <c r="I4" s="15">
-        <f>ROUND(IMDIV(B4,H4),2)</f>
-        <v>0.69</v>
-      </c>
-      <c r="J4" s="15">
-        <f>ROUND(IMDIV(D4,H4),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K4" s="15">
-        <f>ROUND(IMDIV(E4,H4),2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="L4" s="15">
-        <f>ROUND(IMDIV(F4,H4),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="M4" s="15">
-        <f>ROUND(IMDIV(B4,D4),2)</f>
-        <v>1.22</v>
-      </c>
-      <c r="N4" s="15">
-        <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>62.2</v>
-      </c>
-      <c r="O4" s="15">
-        <f>ROUND(IMDIV(G4,H4),2)</f>
-        <v>79.8</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="11">
-        <v>87</v>
-      </c>
-      <c r="C5" s="11">
-        <v>38</v>
-      </c>
-      <c r="D5" s="11">
-        <v>65</v>
-      </c>
-      <c r="E5" s="11">
-        <v>384</v>
-      </c>
-      <c r="F5" s="11">
-        <v>22</v>
-      </c>
-      <c r="G5" s="11">
-        <v>9576</v>
-      </c>
-      <c r="H5" s="11">
-        <v>119</v>
-      </c>
-      <c r="I5" s="15">
-        <f>ROUND(IMDIV(B5,H5),2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="J5" s="15">
-        <f>ROUND(IMDIV(D5,H5),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K5" s="15">
-        <f>ROUND(IMDIV(E5,H5),2)</f>
-        <v>3.23</v>
-      </c>
-      <c r="L5" s="15">
-        <f>ROUND(IMDIV(F5,H5),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="M5" s="15">
-        <f>ROUND(IMDIV(B5,D5),2)</f>
-        <v>1.34</v>
-      </c>
-      <c r="N5" s="15">
-        <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>43.68</v>
-      </c>
-      <c r="O5" s="15">
-        <f>ROUND(IMDIV(G5,H5),2)</f>
-        <v>80.47</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3">
-        <v>304</v>
-      </c>
-      <c r="F6" s="3">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5829</v>
-      </c>
-      <c r="H6" s="3">
-        <v>71</v>
-      </c>
-      <c r="I6" s="17">
-        <f>ROUND(IMDIV(B6,H6),2)</f>
-        <v>0.83</v>
-      </c>
-      <c r="J6" s="17">
-        <f>ROUND(IMDIV(D6,H6),2)</f>
-        <v>0.41</v>
-      </c>
-      <c r="K6" s="17">
-        <f>ROUND(IMDIV(E6,H6),2)</f>
-        <v>4.28</v>
-      </c>
-      <c r="L6" s="17">
-        <f>ROUND(IMDIV(F6,H6),2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="M6" s="17">
-        <f>ROUND(IMDIV(B6,D6),2)</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="N6" s="17">
-        <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>52.54</v>
-      </c>
-      <c r="O6" s="17">
-        <f>ROUND(IMDIV(G6,H6),2)</f>
-        <v>82.1</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3">
-        <v>180</v>
-      </c>
-      <c r="F7" s="3">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5332</v>
-      </c>
-      <c r="H7" s="3">
-        <v>71</v>
-      </c>
-      <c r="I7" s="17">
-        <f>ROUND(IMDIV(B7,H7),2)</f>
-        <v>0.62</v>
-      </c>
-      <c r="J7" s="17">
-        <f>ROUND(IMDIV(D7,H7),2)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K7" s="17">
-        <f>ROUND(IMDIV(E7,H7),2)</f>
-        <v>2.54</v>
-      </c>
-      <c r="L7" s="17">
-        <f>ROUND(IMDIV(F7,H7),2)</f>
-        <v>0.25</v>
-      </c>
-      <c r="M7" s="17">
-        <f>ROUND(IMDIV(B7,D7),2)</f>
-        <v>1.07</v>
-      </c>
-      <c r="N7" s="17">
-        <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>43.18</v>
-      </c>
-      <c r="O7" s="17">
-        <f>ROUND(IMDIV(G7,H7),2)</f>
-        <v>75.099999999999994</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1085,13 +1085,13 @@
         <v>88.63</v>
       </c>
       <c r="P8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="9" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="9" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1145,13 +1145,13 @@
         <v>57.05</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>25</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1513,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
-    <sortCondition sortBy="cellColor" ref="P9:P15" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="P7:P15" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127ECDAB-8309-40D2-AA3C-D4805AE194E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB81D3-7809-4BC8-8A6B-126E8EEFCB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40425" yWindow="4200" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>player</t>
   </si>
@@ -143,13 +143,22 @@
     <t>5th</t>
   </si>
   <si>
-    <t>1st-2nd</t>
-  </si>
-  <si>
-    <t>3rd-4th</t>
-  </si>
-  <si>
     <t>EVP</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>MVP</t>
   </si>
 </sst>
 </file>
@@ -297,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -323,6 +332,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,8 +346,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFBF4F14"/>
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -672,243 +687,243 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11">
-        <v>82</v>
-      </c>
-      <c r="C2" s="11">
-        <v>51</v>
-      </c>
-      <c r="D2" s="11">
-        <v>67</v>
-      </c>
-      <c r="E2" s="11">
-        <v>506</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="11">
-        <v>9496</v>
-      </c>
-      <c r="H2" s="11">
-        <v>119</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="B2" s="3">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3">
+        <v>440</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3">
+        <v>13031</v>
+      </c>
+      <c r="H2" s="3">
+        <v>162</v>
+      </c>
+      <c r="I2" s="17">
         <f>ROUND(IMDIV(B2,H2),2)</f>
-        <v>0.69</v>
-      </c>
-      <c r="J2" s="15">
+        <v>0.76</v>
+      </c>
+      <c r="J2" s="17">
         <f>ROUND(IMDIV(D2,H2),2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K2" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="K2" s="17">
         <f>ROUND(IMDIV(E2,H2),2)</f>
-        <v>4.25</v>
-      </c>
-      <c r="L2" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="L2" s="17">
         <f>ROUND(IMDIV(F2,H2),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="M2" s="15">
+        <v>0.27</v>
+      </c>
+      <c r="M2" s="17">
         <f>ROUND(IMDIV(B2,D2),2)</f>
-        <v>1.22</v>
-      </c>
-      <c r="N2" s="15">
+        <v>1.56</v>
+      </c>
+      <c r="N2" s="17">
         <f>ROUND(IMDIV(C2,B2),4)*100</f>
-        <v>62.2</v>
-      </c>
-      <c r="O2" s="15">
+        <v>50.41</v>
+      </c>
+      <c r="O2" s="17">
         <f>ROUND(IMDIV(G2,H2),2)</f>
-        <v>79.8</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>28</v>
+        <v>80.44</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="11">
-        <v>87</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3">
+        <v>409</v>
+      </c>
+      <c r="F3" s="3">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3">
+        <v>12080</v>
+      </c>
+      <c r="H3" s="3">
+        <v>162</v>
+      </c>
+      <c r="I3" s="17">
+        <f>ROUND(IMDIV(B3,H3),2)</f>
+        <v>0.62</v>
+      </c>
+      <c r="J3" s="17">
+        <f>ROUND(IMDIV(D3,H3),2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="17">
+        <f>ROUND(IMDIV(E3,H3),2)</f>
+        <v>2.52</v>
+      </c>
+      <c r="L3" s="17">
+        <f>ROUND(IMDIV(F3,H3),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="M3" s="17">
+        <f>ROUND(IMDIV(B3,D3),2)</f>
+        <v>1.03</v>
+      </c>
+      <c r="N3" s="17">
+        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+        <v>42</v>
+      </c>
+      <c r="O3" s="17">
+        <f>ROUND(IMDIV(G3,H3),2)</f>
+        <v>74.569999999999993</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11">
-        <v>65</v>
-      </c>
-      <c r="E3" s="11">
-        <v>384</v>
-      </c>
-      <c r="F3" s="11">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11">
-        <v>9576</v>
-      </c>
-      <c r="H3" s="11">
-        <v>119</v>
-      </c>
-      <c r="I3" s="15">
-        <f>ROUND(IMDIV(B3,H3),2)</f>
-        <v>0.73</v>
-      </c>
-      <c r="J3" s="15">
-        <f>ROUND(IMDIV(D3,H3),2)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K3" s="15">
-        <f>ROUND(IMDIV(E3,H3),2)</f>
-        <v>3.23</v>
-      </c>
-      <c r="L3" s="15">
-        <f>ROUND(IMDIV(F3,H3),2)</f>
-        <v>0.18</v>
-      </c>
-      <c r="M3" s="15">
-        <f>ROUND(IMDIV(B3,D3),2)</f>
-        <v>1.34</v>
-      </c>
-      <c r="N3" s="15">
-        <f>ROUND(IMDIV(C3,B3),4)*100</f>
-        <v>43.68</v>
-      </c>
-      <c r="O3" s="15">
-        <f>ROUND(IMDIV(G3,H3),2)</f>
-        <v>80.47</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3">
-        <v>105</v>
-      </c>
-      <c r="C4" s="3">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3">
-        <v>398</v>
-      </c>
-      <c r="F4" s="3">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10873</v>
-      </c>
-      <c r="H4" s="3">
-        <v>135</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="A4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="11">
+        <v>100</v>
+      </c>
+      <c r="C4" s="11">
+        <v>61</v>
+      </c>
+      <c r="D4" s="11">
+        <v>86</v>
+      </c>
+      <c r="E4" s="11">
+        <v>512</v>
+      </c>
+      <c r="F4" s="11">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11">
+        <v>11521</v>
+      </c>
+      <c r="H4" s="11">
+        <v>146</v>
+      </c>
+      <c r="I4" s="15">
         <f>ROUND(IMDIV(B4,H4),2)</f>
-        <v>0.78</v>
-      </c>
-      <c r="J4" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="J4" s="15">
         <f>ROUND(IMDIV(D4,H4),2)</f>
-        <v>0.49</v>
-      </c>
-      <c r="K4" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="K4" s="15">
         <f>ROUND(IMDIV(E4,H4),2)</f>
-        <v>2.95</v>
-      </c>
-      <c r="L4" s="17">
+        <v>3.51</v>
+      </c>
+      <c r="L4" s="15">
         <f>ROUND(IMDIV(F4,H4),2)</f>
-        <v>0.22</v>
-      </c>
-      <c r="M4" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="M4" s="15">
         <f>ROUND(IMDIV(B4,D4),2)</f>
-        <v>1.59</v>
-      </c>
-      <c r="N4" s="17">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N4" s="15">
         <f>ROUND(IMDIV(C4,B4),4)*100</f>
-        <v>49.519999999999996</v>
-      </c>
-      <c r="O4" s="17">
+        <v>61</v>
+      </c>
+      <c r="O4" s="15">
         <f>ROUND(IMDIV(G4,H4),2)</f>
-        <v>80.540000000000006</v>
-      </c>
-      <c r="P4" s="3" t="s">
+        <v>78.91</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3">
-        <v>80</v>
-      </c>
-      <c r="C5" s="3">
-        <v>34</v>
-      </c>
-      <c r="D5" s="3">
-        <v>82</v>
-      </c>
-      <c r="E5" s="3">
-        <v>343</v>
-      </c>
-      <c r="F5" s="3">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9656</v>
-      </c>
-      <c r="H5" s="3">
-        <v>135</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="A5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>97</v>
+      </c>
+      <c r="C5" s="11">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11">
+        <v>84</v>
+      </c>
+      <c r="E5" s="11">
+        <v>431</v>
+      </c>
+      <c r="F5" s="11">
+        <v>26</v>
+      </c>
+      <c r="G5" s="11">
+        <v>11126</v>
+      </c>
+      <c r="H5" s="11">
+        <v>146</v>
+      </c>
+      <c r="I5" s="15">
         <f>ROUND(IMDIV(B5,H5),2)</f>
-        <v>0.59</v>
-      </c>
-      <c r="J5" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="J5" s="15">
         <f>ROUND(IMDIV(D5,H5),2)</f>
-        <v>0.61</v>
-      </c>
-      <c r="K5" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K5" s="15">
         <f>ROUND(IMDIV(E5,H5),2)</f>
-        <v>2.54</v>
-      </c>
-      <c r="L5" s="17">
+        <v>2.95</v>
+      </c>
+      <c r="L5" s="15">
         <f>ROUND(IMDIV(F5,H5),2)</f>
-        <v>0.2</v>
-      </c>
-      <c r="M5" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="M5" s="15">
         <f>ROUND(IMDIV(B5,D5),2)</f>
-        <v>0.98</v>
-      </c>
-      <c r="N5" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N5" s="15">
         <f>ROUND(IMDIV(C5,B5),4)*100</f>
-        <v>42.5</v>
-      </c>
-      <c r="O5" s="17">
+        <v>43.3</v>
+      </c>
+      <c r="O5" s="15">
         <f>ROUND(IMDIV(G5,H5),2)</f>
-        <v>71.53</v>
-      </c>
-      <c r="P5" s="3" t="s">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -916,59 +931,59 @@
         <v>26</v>
       </c>
       <c r="B6" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2">
-        <v>241</v>
+        <v>530</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>12488</v>
+        <v>16623</v>
       </c>
       <c r="H6" s="2">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="I6" s="16">
         <f>ROUND(IMDIV(B6,H6),2)</f>
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J6" s="16">
         <f>ROUND(IMDIV(D6,H6),2)</f>
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K6" s="16">
         <f>ROUND(IMDIV(E6,H6),2)</f>
-        <v>1.61</v>
+        <v>2.72</v>
       </c>
       <c r="L6" s="16">
         <f>ROUND(IMDIV(F6,H6),2)</f>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M6" s="16">
         <f>ROUND(IMDIV(B6,D6),2)</f>
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N6" s="16">
         <f>ROUND(IMDIV(C6,B6),4)*100</f>
-        <v>34.479999999999997</v>
+        <v>38.51</v>
       </c>
       <c r="O6" s="16">
         <f>ROUND(IMDIV(G6,H6),2)</f>
-        <v>83.25</v>
+        <v>85.25</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -976,29 +991,29 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
-        <v>9484</v>
+        <v>12184</v>
       </c>
       <c r="H7" s="2">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="I7" s="16">
         <f>ROUND(IMDIV(B7,H7),2)</f>
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="J7" s="16">
         <f>ROUND(IMDIV(D7,H7),2)</f>
@@ -1006,23 +1021,23 @@
       </c>
       <c r="K7" s="16">
         <f>ROUND(IMDIV(E7,H7),2)</f>
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="L7" s="16">
         <f>ROUND(IMDIV(F7,H7),2)</f>
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="M7" s="16">
         <f>ROUND(IMDIV(B7,D7),2)</f>
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="N7" s="16">
         <f>ROUND(IMDIV(C7,B7),4)*100</f>
-        <v>50</v>
+        <v>47.06</v>
       </c>
       <c r="O7" s="16">
         <f>ROUND(IMDIV(G7,H7),2)</f>
-        <v>63.23</v>
+        <v>62.48</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>36</v>
@@ -1036,59 +1051,59 @@
         <v>27</v>
       </c>
       <c r="B8" s="9">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E8" s="9">
-        <v>1160</v>
+        <v>1379</v>
       </c>
       <c r="F8" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="9">
-        <v>12319</v>
+        <v>15561</v>
       </c>
       <c r="H8" s="9">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="I8" s="18">
         <f>ROUND(IMDIV(B8,H8),2)</f>
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="J8" s="18">
         <f>ROUND(IMDIV(D8,H8),2)</f>
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K8" s="18">
         <f>ROUND(IMDIV(E8,H8),2)</f>
-        <v>8.35</v>
+        <v>7.49</v>
       </c>
       <c r="L8" s="18">
         <f>ROUND(IMDIV(F8,H8),2)</f>
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M8" s="18">
         <f>ROUND(IMDIV(B8,D8),2)</f>
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="N8" s="18">
         <f>ROUND(IMDIV(C8,B8),4)*100</f>
-        <v>49.519999999999996</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="O8" s="18">
         <f>ROUND(IMDIV(G8,H8),2)</f>
-        <v>88.63</v>
+        <v>84.57</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1096,56 +1111,56 @@
         <v>20</v>
       </c>
       <c r="B9" s="9">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C9" s="9">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E9" s="9">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F9" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G9" s="9">
-        <v>7930</v>
+        <v>10654</v>
       </c>
       <c r="H9" s="9">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="I9" s="18">
         <f>ROUND(IMDIV(B9,H9),2)</f>
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="J9" s="18">
         <f>ROUND(IMDIV(D9,H9),2)</f>
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="K9" s="18">
         <f>ROUND(IMDIV(E9,H9),2)</f>
-        <v>2.54</v>
+        <v>1.96</v>
       </c>
       <c r="L9" s="18">
         <f>ROUND(IMDIV(F9,H9),2)</f>
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="M9" s="18">
         <f>ROUND(IMDIV(B9,D9),2)</f>
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="N9" s="18">
         <f>ROUND(IMDIV(C9,B9),4)*100</f>
-        <v>50.68</v>
+        <v>51.61</v>
       </c>
       <c r="O9" s="18">
         <f>ROUND(IMDIV(G9,H9),2)</f>
-        <v>57.05</v>
+        <v>57.9</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>28</v>
@@ -1513,7 +1528,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
-    <sortCondition sortBy="cellColor" ref="P7:P15" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="A5:A15" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB81D3-7809-4BC8-8A6B-126E8EEFCB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32F608-865B-4327-AC6E-55BDB30228FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40425" yWindow="4200" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39180" yWindow="4935" windowWidth="27675" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>player</t>
   </si>
@@ -159,6 +159,21 @@
   </si>
   <si>
     <t>MVP</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>1v2PR</t>
+  </si>
+  <si>
+    <t>1v2</t>
+  </si>
+  <si>
+    <t>MKPR</t>
+  </si>
+  <si>
+    <t>PadRating</t>
   </si>
 </sst>
 </file>
@@ -195,7 +210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +301,12 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -306,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -338,6 +359,26 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +409,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -620,20 +661,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
-    <col min="17" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="27" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -643,50 +684,65 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="V1" s="43" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -696,57 +752,75 @@
       <c r="C2" s="3">
         <v>62</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="30">
+        <v>32</v>
+      </c>
+      <c r="E2" s="30">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
         <v>79</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>440</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>44</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>13031</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>162</v>
       </c>
-      <c r="I2" s="17">
-        <f>ROUND(IMDIV(B2,H2),2)</f>
+      <c r="K2" s="17">
+        <f t="shared" ref="K2:K15" si="0">ROUND(IMDIV(B2,J2),2)</f>
         <v>0.76</v>
       </c>
-      <c r="J2" s="17">
-        <f>ROUND(IMDIV(D2,H2),2)</f>
+      <c r="L2" s="36">
+        <f>E2/J2</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="M2" s="36">
+        <f>D2/J2</f>
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="N2" s="17">
+        <f t="shared" ref="N2:N15" si="1">ROUND(IMDIV(F2,J2),2)</f>
         <v>0.49</v>
       </c>
-      <c r="K2" s="17">
-        <f>ROUND(IMDIV(E2,H2),2)</f>
+      <c r="O2" s="17">
+        <f t="shared" ref="O2:O15" si="2">ROUND(IMDIV(G2,J2),2)</f>
         <v>2.72</v>
       </c>
-      <c r="L2" s="17">
-        <f>ROUND(IMDIV(F2,H2),2)</f>
+      <c r="P2" s="17">
+        <f t="shared" ref="P2:P15" si="3">ROUND(IMDIV(H2,J2),2)</f>
         <v>0.27</v>
       </c>
-      <c r="M2" s="17">
-        <f>ROUND(IMDIV(B2,D2),2)</f>
+      <c r="Q2" s="17">
+        <f t="shared" ref="Q2:Q15" si="4">ROUND(IMDIV(B2,F2),2)</f>
         <v>1.56</v>
       </c>
-      <c r="N2" s="17">
-        <f>ROUND(IMDIV(C2,B2),4)*100</f>
+      <c r="R2" s="17">
+        <f t="shared" ref="R2:R15" si="5">ROUND(IMDIV(C2,B2),4)*100</f>
         <v>50.41</v>
       </c>
-      <c r="O2" s="17">
-        <f>ROUND(IMDIV(G2,H2),2)</f>
+      <c r="S2" s="17">
+        <f t="shared" ref="S2:S15" si="6">ROUND(IMDIV(I2,J2),2)</f>
         <v>80.44</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>40</v>
       </c>
+      <c r="V2" s="44">
+        <f>((K2/2)+(M2/4)+(L2/5)-(N2)+(S2/215)+(P2/20))+1</f>
+        <v>1.3418370657479186</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -756,57 +830,75 @@
       <c r="C3" s="3">
         <v>42</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="30">
+        <v>22</v>
+      </c>
+      <c r="E3" s="30">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
         <v>97</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>409</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>35</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>12080</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>162</v>
       </c>
-      <c r="I3" s="17">
-        <f>ROUND(IMDIV(B3,H3),2)</f>
+      <c r="K3" s="17">
+        <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="J3" s="17">
-        <f>ROUND(IMDIV(D3,H3),2)</f>
+      <c r="L3" s="36">
+        <f t="shared" ref="L3:L15" si="7">E3/J3</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="M3" s="36">
+        <f t="shared" ref="M3:M15" si="8">D3/J3</f>
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="N3" s="17">
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="K3" s="17">
-        <f>ROUND(IMDIV(E3,H3),2)</f>
+      <c r="O3" s="17">
+        <f t="shared" si="2"/>
         <v>2.52</v>
       </c>
-      <c r="L3" s="17">
-        <f>ROUND(IMDIV(F3,H3),2)</f>
+      <c r="P3" s="17">
+        <f t="shared" si="3"/>
         <v>0.22</v>
       </c>
-      <c r="M3" s="17">
-        <f>ROUND(IMDIV(B3,D3),2)</f>
+      <c r="Q3" s="17">
+        <f t="shared" si="4"/>
         <v>1.03</v>
       </c>
-      <c r="N3" s="17">
-        <f>ROUND(IMDIV(C3,B3),4)*100</f>
+      <c r="R3" s="17">
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="O3" s="17">
-        <f>ROUND(IMDIV(G3,H3),2)</f>
+      <c r="S3" s="17">
+        <f t="shared" si="6"/>
         <v>74.569999999999993</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="U3" s="25" t="s">
         <v>35</v>
       </c>
+      <c r="V3" s="44">
+        <f t="shared" ref="V3:V15" si="9">((K3/2)+(M3/4)+(L3/5)-(N3)+(S3/215)+(P3/20))+1</f>
+        <v>1.1128989376973872</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -816,57 +908,75 @@
       <c r="C4" s="11">
         <v>61</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="31">
+        <v>26</v>
+      </c>
+      <c r="E4" s="31">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11">
         <v>86</v>
       </c>
-      <c r="E4" s="11">
+      <c r="G4" s="11">
         <v>512</v>
       </c>
-      <c r="F4" s="11">
+      <c r="H4" s="11">
         <v>25</v>
       </c>
-      <c r="G4" s="11">
+      <c r="I4" s="11">
         <v>11521</v>
       </c>
-      <c r="H4" s="11">
+      <c r="J4" s="11">
         <v>146</v>
       </c>
-      <c r="I4" s="15">
-        <f>ROUND(IMDIV(B4,H4),2)</f>
+      <c r="K4" s="15">
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="J4" s="15">
-        <f>ROUND(IMDIV(D4,H4),2)</f>
+      <c r="L4" s="37">
+        <f t="shared" si="7"/>
+        <v>8.9041095890410954E-2</v>
+      </c>
+      <c r="M4" s="37">
+        <f t="shared" si="8"/>
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
-      <c r="K4" s="15">
-        <f>ROUND(IMDIV(E4,H4),2)</f>
+      <c r="O4" s="15">
+        <f t="shared" si="2"/>
         <v>3.51</v>
       </c>
-      <c r="L4" s="15">
-        <f>ROUND(IMDIV(F4,H4),2)</f>
+      <c r="P4" s="15">
+        <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
-      <c r="M4" s="15">
-        <f>ROUND(IMDIV(B4,D4),2)</f>
+      <c r="Q4" s="15">
+        <f t="shared" si="4"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="N4" s="15">
-        <f>ROUND(IMDIV(C4,B4),4)*100</f>
+      <c r="R4" s="15">
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="O4" s="15">
-        <f>ROUND(IMDIV(G4,H4),2)</f>
+      <c r="S4" s="15">
+        <f t="shared" si="6"/>
         <v>78.91</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="U4" s="26" t="s">
         <v>35</v>
       </c>
+      <c r="V4" s="44">
+        <f t="shared" si="9"/>
+        <v>1.1878520229372411</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
@@ -876,57 +986,75 @@
       <c r="C5" s="11">
         <v>42</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="31">
+        <v>29</v>
+      </c>
+      <c r="E5" s="31">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11">
         <v>84</v>
       </c>
-      <c r="E5" s="11">
+      <c r="G5" s="11">
         <v>431</v>
       </c>
-      <c r="F5" s="11">
+      <c r="H5" s="11">
         <v>26</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="11">
         <v>11126</v>
       </c>
-      <c r="H5" s="11">
+      <c r="J5" s="11">
         <v>146</v>
       </c>
-      <c r="I5" s="15">
-        <f>ROUND(IMDIV(B5,H5),2)</f>
+      <c r="K5" s="15">
+        <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
-      <c r="J5" s="15">
-        <f>ROUND(IMDIV(D5,H5),2)</f>
+      <c r="L5" s="37">
+        <f t="shared" si="7"/>
+        <v>7.5342465753424653E-2</v>
+      </c>
+      <c r="M5" s="37">
+        <f t="shared" si="8"/>
+        <v>0.19863013698630136</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="K5" s="15">
-        <f>ROUND(IMDIV(E5,H5),2)</f>
+      <c r="O5" s="15">
+        <f t="shared" si="2"/>
         <v>2.95</v>
       </c>
-      <c r="L5" s="15">
-        <f>ROUND(IMDIV(F5,H5),2)</f>
+      <c r="P5" s="15">
+        <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
-      <c r="M5" s="15">
-        <f>ROUND(IMDIV(B5,D5),2)</f>
+      <c r="Q5" s="15">
+        <f t="shared" si="4"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="N5" s="15">
-        <f>ROUND(IMDIV(C5,B5),4)*100</f>
+      <c r="R5" s="15">
+        <f t="shared" si="5"/>
         <v>43.3</v>
       </c>
-      <c r="O5" s="15">
-        <f>ROUND(IMDIV(G5,H5),2)</f>
+      <c r="S5" s="15">
+        <f t="shared" si="6"/>
         <v>76.209999999999994</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="U5" s="26" t="s">
         <v>35</v>
       </c>
+      <c r="V5" s="44">
+        <f t="shared" si="9"/>
+        <v>1.1781911436763299</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -936,57 +1064,75 @@
       <c r="C6" s="2">
         <v>57</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="32">
+        <v>39</v>
+      </c>
+      <c r="E6" s="32">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
         <v>109</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>530</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>16623</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>195</v>
       </c>
-      <c r="I6" s="16">
-        <f>ROUND(IMDIV(B6,H6),2)</f>
+      <c r="K6" s="16">
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
-      <c r="J6" s="16">
-        <f>ROUND(IMDIV(D6,H6),2)</f>
+      <c r="L6" s="38">
+        <f t="shared" si="7"/>
+        <v>8.7179487179487175E-2</v>
+      </c>
+      <c r="M6" s="38">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="K6" s="16">
-        <f>ROUND(IMDIV(E6,H6),2)</f>
+      <c r="O6" s="16">
+        <f t="shared" si="2"/>
         <v>2.72</v>
       </c>
-      <c r="L6" s="16">
-        <f>ROUND(IMDIV(F6,H6),2)</f>
+      <c r="P6" s="16">
+        <f t="shared" si="3"/>
         <v>0.06</v>
       </c>
-      <c r="M6" s="16">
-        <f>ROUND(IMDIV(B6,D6),2)</f>
+      <c r="Q6" s="16">
+        <f t="shared" si="4"/>
         <v>1.36</v>
       </c>
-      <c r="N6" s="16">
-        <f>ROUND(IMDIV(C6,B6),4)*100</f>
+      <c r="R6" s="16">
+        <f t="shared" si="5"/>
         <v>38.51</v>
       </c>
-      <c r="O6" s="16">
-        <f>ROUND(IMDIV(G6,H6),2)</f>
+      <c r="S6" s="16">
+        <f t="shared" si="6"/>
         <v>85.25</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="V6" s="44">
+        <f t="shared" si="9"/>
+        <v>1.2869475253428742</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -996,57 +1142,75 @@
       <c r="C7" s="2">
         <v>48</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="32">
+        <v>24</v>
+      </c>
+      <c r="E7" s="32">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
         <v>115</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>228</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>25</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>12184</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>195</v>
       </c>
-      <c r="I7" s="16">
-        <f>ROUND(IMDIV(B7,H7),2)</f>
+      <c r="K7" s="16">
+        <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
-      <c r="J7" s="16">
-        <f>ROUND(IMDIV(D7,H7),2)</f>
+      <c r="L7" s="38">
+        <f t="shared" si="7"/>
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="M7" s="38">
+        <f t="shared" si="8"/>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
-      <c r="K7" s="16">
-        <f>ROUND(IMDIV(E7,H7),2)</f>
+      <c r="O7" s="16">
+        <f t="shared" si="2"/>
         <v>1.17</v>
       </c>
-      <c r="L7" s="16">
-        <f>ROUND(IMDIV(F7,H7),2)</f>
+      <c r="P7" s="16">
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
-      <c r="M7" s="16">
-        <f>ROUND(IMDIV(B7,D7),2)</f>
+      <c r="Q7" s="16">
+        <f t="shared" si="4"/>
         <v>0.89</v>
       </c>
-      <c r="N7" s="16">
-        <f>ROUND(IMDIV(C7,B7),4)*100</f>
+      <c r="R7" s="16">
+        <f t="shared" si="5"/>
         <v>47.06</v>
       </c>
-      <c r="O7" s="16">
-        <f>ROUND(IMDIV(G7,H7),2)</f>
+      <c r="S7" s="16">
+        <f t="shared" si="6"/>
         <v>62.48</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="V7" s="44">
+        <f t="shared" si="9"/>
+        <v>1.0071046511627906</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1056,57 +1220,75 @@
       <c r="C8" s="9">
         <v>77</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="33">
+        <v>34</v>
+      </c>
+      <c r="E8" s="33">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
         <v>106</v>
       </c>
-      <c r="E8" s="9">
+      <c r="G8" s="9">
         <v>1379</v>
       </c>
-      <c r="F8" s="9">
+      <c r="H8" s="9">
         <v>26</v>
       </c>
-      <c r="G8" s="9">
+      <c r="I8" s="9">
         <v>15561</v>
       </c>
-      <c r="H8" s="9">
+      <c r="J8" s="9">
         <v>184</v>
       </c>
-      <c r="I8" s="18">
-        <f>ROUND(IMDIV(B8,H8),2)</f>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J8" s="18">
-        <f>ROUND(IMDIV(D8,H8),2)</f>
+      <c r="L8" s="39">
+        <f t="shared" si="7"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="M8" s="39">
+        <f t="shared" si="8"/>
+        <v>0.18478260869565216</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="K8" s="18">
-        <f>ROUND(IMDIV(E8,H8),2)</f>
+      <c r="O8" s="18">
+        <f t="shared" si="2"/>
         <v>7.49</v>
       </c>
-      <c r="L8" s="18">
-        <f>ROUND(IMDIV(F8,H8),2)</f>
+      <c r="P8" s="18">
+        <f t="shared" si="3"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="M8" s="18">
-        <f>ROUND(IMDIV(B8,D8),2)</f>
+      <c r="Q8" s="18">
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
-      <c r="N8" s="18">
-        <f>ROUND(IMDIV(C8,B8),4)*100</f>
+      <c r="R8" s="18">
+        <f t="shared" si="5"/>
         <v>55.800000000000004</v>
       </c>
-      <c r="O8" s="18">
-        <f>ROUND(IMDIV(G8,H8),2)</f>
+      <c r="S8" s="18">
+        <f t="shared" si="6"/>
         <v>84.57</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="T8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="U8" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="V8" s="44">
+        <f t="shared" si="9"/>
+        <v>1.2502401415571285</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1116,57 +1298,75 @@
       <c r="C9" s="9">
         <v>48</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="33">
+        <v>14</v>
+      </c>
+      <c r="E9" s="33">
+        <v>7</v>
+      </c>
+      <c r="F9" s="9">
         <v>117</v>
       </c>
-      <c r="E9" s="9">
+      <c r="G9" s="9">
         <v>360</v>
       </c>
-      <c r="F9" s="9">
+      <c r="H9" s="9">
         <v>31</v>
       </c>
-      <c r="G9" s="9">
+      <c r="I9" s="9">
         <v>10654</v>
       </c>
-      <c r="H9" s="9">
+      <c r="J9" s="9">
         <v>184</v>
       </c>
-      <c r="I9" s="18">
-        <f>ROUND(IMDIV(B9,H9),2)</f>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="J9" s="18">
-        <f>ROUND(IMDIV(D9,H9),2)</f>
+      <c r="L9" s="39">
+        <f t="shared" si="7"/>
+        <v>3.8043478260869568E-2</v>
+      </c>
+      <c r="M9" s="39">
+        <f t="shared" si="8"/>
+        <v>7.6086956521739135E-2</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
-      <c r="K9" s="18">
-        <f>ROUND(IMDIV(E9,H9),2)</f>
+      <c r="O9" s="18">
+        <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
-      <c r="L9" s="18">
-        <f>ROUND(IMDIV(F9,H9),2)</f>
+      <c r="P9" s="18">
+        <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
-      <c r="M9" s="18">
-        <f>ROUND(IMDIV(B9,D9),2)</f>
+      <c r="Q9" s="18">
+        <f t="shared" si="4"/>
         <v>0.79</v>
       </c>
-      <c r="N9" s="18">
-        <f>ROUND(IMDIV(C9,B9),4)*100</f>
+      <c r="R9" s="18">
+        <f t="shared" si="5"/>
         <v>51.61</v>
       </c>
-      <c r="O9" s="18">
-        <f>ROUND(IMDIV(G9,H9),2)</f>
+      <c r="S9" s="18">
+        <f t="shared" si="6"/>
         <v>57.9</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="T9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="V9" s="44">
+        <f t="shared" si="9"/>
+        <v>0.91943276036400401</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -1176,57 +1376,75 @@
       <c r="C10" s="22">
         <v>27</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="34">
+        <v>12</v>
+      </c>
+      <c r="E10" s="34">
+        <v>6</v>
+      </c>
+      <c r="F10" s="22">
         <v>47</v>
       </c>
-      <c r="E10" s="22">
+      <c r="G10" s="22">
         <v>159</v>
       </c>
-      <c r="F10" s="22">
+      <c r="H10" s="22">
         <v>10</v>
       </c>
-      <c r="G10" s="22">
+      <c r="I10" s="22">
         <v>6268</v>
       </c>
-      <c r="H10" s="22">
+      <c r="J10" s="22">
         <v>78</v>
       </c>
-      <c r="I10" s="20">
-        <f>ROUND(IMDIV(B10,H10),2)</f>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
         <v>0.73</v>
       </c>
-      <c r="J10" s="20">
-        <f>ROUND(IMDIV(D10,H10),2)</f>
+      <c r="L10" s="40">
+        <f t="shared" si="7"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M10" s="40">
+        <f t="shared" si="8"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="K10" s="20">
-        <f>ROUND(IMDIV(E10,H10),2)</f>
+      <c r="O10" s="20">
+        <f t="shared" si="2"/>
         <v>2.04</v>
       </c>
-      <c r="L10" s="20">
-        <f>ROUND(IMDIV(F10,H10),2)</f>
+      <c r="P10" s="20">
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
-      <c r="M10" s="20">
-        <f>ROUND(IMDIV(B10,D10),2)</f>
+      <c r="Q10" s="20">
+        <f t="shared" si="4"/>
         <v>1.21</v>
       </c>
-      <c r="N10" s="20">
-        <f>ROUND(IMDIV(C10,B10),4)*100</f>
+      <c r="R10" s="20">
+        <f t="shared" si="5"/>
         <v>47.370000000000005</v>
       </c>
-      <c r="O10" s="20">
-        <f>ROUND(IMDIV(G10,H10),2)</f>
+      <c r="S10" s="20">
+        <f t="shared" si="6"/>
         <v>80.36</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="T10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="U10" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="V10" s="44">
+        <f t="shared" si="9"/>
+        <v>1.199113595706619</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
@@ -1236,57 +1454,75 @@
       <c r="C11" s="22">
         <v>20</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="34">
+        <v>7</v>
+      </c>
+      <c r="E11" s="34">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22">
         <v>51</v>
       </c>
-      <c r="E11" s="22">
+      <c r="G11" s="22">
         <v>115</v>
       </c>
-      <c r="F11" s="22">
+      <c r="H11" s="22">
         <v>15</v>
       </c>
-      <c r="G11" s="22">
+      <c r="I11" s="22">
         <v>4982</v>
       </c>
-      <c r="H11" s="22">
+      <c r="J11" s="22">
         <v>78</v>
       </c>
-      <c r="I11" s="20">
-        <f>ROUND(IMDIV(B11,H11),2)</f>
+      <c r="K11" s="20">
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="J11" s="20">
-        <f>ROUND(IMDIV(D11,H11),2)</f>
+      <c r="L11" s="40">
+        <f t="shared" si="7"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="M11" s="40">
+        <f t="shared" si="8"/>
+        <v>8.9743589743589744E-2</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="K11" s="20">
-        <f>ROUND(IMDIV(E11,H11),2)</f>
+      <c r="O11" s="20">
+        <f t="shared" si="2"/>
         <v>1.47</v>
       </c>
-      <c r="L11" s="20">
-        <f>ROUND(IMDIV(F11,H11),2)</f>
+      <c r="P11" s="20">
+        <f t="shared" si="3"/>
         <v>0.19</v>
       </c>
-      <c r="M11" s="20">
-        <f>ROUND(IMDIV(B11,D11),2)</f>
+      <c r="Q11" s="20">
+        <f t="shared" si="4"/>
         <v>0.84</v>
       </c>
-      <c r="N11" s="20">
-        <f>ROUND(IMDIV(C11,B11),4)*100</f>
+      <c r="R11" s="20">
+        <f t="shared" si="5"/>
         <v>46.51</v>
       </c>
-      <c r="O11" s="20">
-        <f>ROUND(IMDIV(G11,H11),2)</f>
+      <c r="S11" s="20">
+        <f t="shared" si="6"/>
         <v>63.87</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="T11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="U11" s="22" t="s">
         <v>28</v>
       </c>
+      <c r="V11" s="44">
+        <f t="shared" si="9"/>
+        <v>0.96682617769827073</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1296,57 +1532,75 @@
       <c r="C12" s="21">
         <v>38</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="27">
+        <v>16</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
         <v>50</v>
       </c>
-      <c r="E12" s="21">
+      <c r="G12" s="21">
         <v>400</v>
       </c>
-      <c r="F12" s="21">
+      <c r="H12" s="21">
         <v>29</v>
       </c>
-      <c r="G12" s="21">
+      <c r="I12" s="21">
         <v>6996</v>
       </c>
-      <c r="H12" s="21">
+      <c r="J12" s="21">
         <v>73</v>
       </c>
-      <c r="I12" s="19">
-        <f>ROUND(IMDIV(B12,H12),2)</f>
+      <c r="K12" s="19">
+        <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
-      <c r="J12" s="19">
-        <f>ROUND(IMDIV(D12,H12),2)</f>
+      <c r="L12" s="41">
+        <f t="shared" si="7"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="M12" s="41">
+        <f t="shared" si="8"/>
+        <v>0.21917808219178081</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="K12" s="19">
-        <f>ROUND(IMDIV(E12,H12),2)</f>
+      <c r="O12" s="19">
+        <f t="shared" si="2"/>
         <v>5.48</v>
       </c>
-      <c r="L12" s="19">
-        <f>ROUND(IMDIV(F12,H12),2)</f>
+      <c r="P12" s="19">
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="M12" s="19">
-        <f>ROUND(IMDIV(B12,D12),2)</f>
+      <c r="Q12" s="19">
+        <f t="shared" si="4"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="N12" s="19">
-        <f>ROUND(IMDIV(C12,B12),4)*100</f>
+      <c r="R12" s="19">
+        <f t="shared" si="5"/>
         <v>67.86</v>
       </c>
-      <c r="O12" s="19">
-        <f>ROUND(IMDIV(G12,H12),2)</f>
+      <c r="S12" s="19">
+        <f t="shared" si="6"/>
         <v>95.84</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="T12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="U12" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="V12" s="44">
+        <f t="shared" si="9"/>
+        <v>1.2283016884358076</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1356,57 +1610,75 @@
       <c r="C13" s="21">
         <v>9</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
         <v>53</v>
       </c>
-      <c r="E13" s="21">
+      <c r="G13" s="21">
         <v>111</v>
       </c>
-      <c r="F13" s="21">
+      <c r="H13" s="21">
         <v>16</v>
       </c>
-      <c r="G13" s="21">
+      <c r="I13" s="21">
         <v>2380</v>
       </c>
-      <c r="H13" s="21">
+      <c r="J13" s="21">
         <v>73</v>
       </c>
-      <c r="I13" s="19">
-        <f>ROUND(IMDIV(B13,H13),2)</f>
+      <c r="K13" s="19">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J13" s="19">
-        <f>ROUND(IMDIV(D13,H13),2)</f>
+      <c r="L13" s="41">
+        <f t="shared" si="7"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="M13" s="41">
+        <f t="shared" si="8"/>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="N13" s="19">
+        <f t="shared" si="1"/>
         <v>0.73</v>
       </c>
-      <c r="K13" s="19">
-        <f>ROUND(IMDIV(E13,H13),2)</f>
+      <c r="O13" s="19">
+        <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
-      <c r="L13" s="19">
-        <f>ROUND(IMDIV(F13,H13),2)</f>
+      <c r="P13" s="19">
+        <f t="shared" si="3"/>
         <v>0.22</v>
       </c>
-      <c r="M13" s="19">
-        <f>ROUND(IMDIV(B13,D13),2)</f>
+      <c r="Q13" s="19">
+        <f t="shared" si="4"/>
         <v>0.34</v>
       </c>
-      <c r="N13" s="19">
-        <f>ROUND(IMDIV(C13,B13),4)*100</f>
+      <c r="R13" s="19">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="O13" s="19">
-        <f>ROUND(IMDIV(G13,H13),2)</f>
+      <c r="S13" s="19">
+        <f t="shared" si="6"/>
         <v>32.6</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="T13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="U13" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="V13" s="44">
+        <f t="shared" si="9"/>
+        <v>0.56379229053838809</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>25</v>
       </c>
@@ -1416,57 +1688,75 @@
       <c r="C14" s="24">
         <v>4</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="28">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2</v>
+      </c>
+      <c r="F14" s="24">
         <v>57</v>
       </c>
-      <c r="E14" s="24">
+      <c r="G14" s="24">
         <v>110</v>
       </c>
-      <c r="F14" s="24">
+      <c r="H14" s="24">
         <v>22</v>
       </c>
-      <c r="G14" s="24">
+      <c r="I14" s="24">
         <v>3449</v>
       </c>
-      <c r="H14" s="24">
+      <c r="J14" s="24">
         <v>66</v>
       </c>
-      <c r="I14" s="4">
-        <f>ROUND(IMDIV(B14,H14),2)</f>
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="J14" s="4">
-        <f>ROUND(IMDIV(D14,H14),2)</f>
+      <c r="L14" s="42">
+        <f t="shared" si="7"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="8"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-      <c r="K14" s="4">
-        <f>ROUND(IMDIV(E14,H14),2)</f>
+      <c r="O14" s="4">
+        <f t="shared" si="2"/>
         <v>1.67</v>
       </c>
-      <c r="L14" s="4">
-        <f>ROUND(IMDIV(F14,H14),2)</f>
+      <c r="P14" s="4">
+        <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
-      <c r="M14" s="4">
-        <f>ROUND(IMDIV(B14,D14),2)</f>
+      <c r="Q14" s="4">
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
-      <c r="N14" s="4">
-        <f>ROUND(IMDIV(C14,B14),4)*100</f>
+      <c r="R14" s="4">
+        <f t="shared" si="5"/>
         <v>23.53</v>
       </c>
-      <c r="O14" s="4">
-        <f>ROUND(IMDIV(G14,H14),2)</f>
+      <c r="S14" s="4">
+        <f t="shared" si="6"/>
         <v>52.26</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="T14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="U14" s="23" t="s">
         <v>28</v>
       </c>
+      <c r="V14" s="44">
+        <f t="shared" si="9"/>
+        <v>0.5507818886539817</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
@@ -1476,58 +1766,76 @@
       <c r="C15" s="24">
         <v>7</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="28">
+        <v>3</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2</v>
+      </c>
+      <c r="F15" s="24">
         <v>57</v>
       </c>
-      <c r="E15" s="23">
+      <c r="G15" s="23">
         <v>8</v>
       </c>
-      <c r="F15" s="24">
+      <c r="H15" s="24">
         <v>2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="I15" s="24">
         <v>2902</v>
       </c>
-      <c r="H15" s="24">
+      <c r="J15" s="24">
         <v>66</v>
       </c>
-      <c r="I15" s="4">
-        <f>ROUND(IMDIV(B15,H15),2)</f>
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="J15" s="4">
-        <f>ROUND(IMDIV(D15,H15),2)</f>
+      <c r="L15" s="42">
+        <f t="shared" si="7"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="M15" s="42">
+        <f t="shared" si="8"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-      <c r="K15" s="4">
-        <f>ROUND(IMDIV(E15,H15),2)</f>
+      <c r="O15" s="4">
+        <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L15" s="4">
-        <f>ROUND(IMDIV(F15,H15),2)</f>
+      <c r="P15" s="4">
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="M15" s="4">
-        <f>ROUND(IMDIV(B15,D15),2)</f>
+      <c r="Q15" s="4">
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="N15" s="4">
-        <f>ROUND(IMDIV(C15,B15),4)*100</f>
+      <c r="R15" s="4">
+        <f t="shared" si="5"/>
         <v>30.43</v>
       </c>
-      <c r="O15" s="4">
-        <f>ROUND(IMDIV(G15,H15),2)</f>
+      <c r="S15" s="4">
+        <f t="shared" si="6"/>
         <v>43.97</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="T15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="U15" s="23" t="s">
         <v>28</v>
+      </c>
+      <c r="V15" s="44">
+        <f t="shared" si="9"/>
+        <v>0.53843587033121909</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U15">
     <sortCondition sortBy="cellColor" ref="A5:A15" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2v2statsLeagueXL.xlsx
+++ b/2v2statsLeagueXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A6123615\Documents\pyroject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32F608-865B-4327-AC6E-55BDB30228FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9877C620-5377-4D61-9C19-135B66650847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="4935" windowWidth="27675" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32670" yWindow="5970" windowWidth="23235" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Awards</t>
   </si>
   <si>
-    <t>Dom</t>
-  </si>
-  <si>
     <t>Dank</t>
   </si>
   <si>
@@ -104,24 +101,12 @@
     <t>Swny</t>
   </si>
   <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
     <t>Dmah</t>
   </si>
   <si>
-    <t>Caffey</t>
-  </si>
-  <si>
     <t>Danzo</t>
   </si>
   <si>
-    <t>Steve</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>Jsad</t>
   </si>
   <si>
-    <t>Nate</t>
-  </si>
-  <si>
     <t>7th</t>
   </si>
   <si>
@@ -174,6 +156,24 @@
   </si>
   <si>
     <t>PadRating</t>
+  </si>
+  <si>
+    <t>MaggotEatr</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>Sweaty</t>
+  </si>
+  <si>
+    <t>dverad74</t>
+  </si>
+  <si>
+    <t>Joebro</t>
+  </si>
+  <si>
+    <t>ULTRA BEAST</t>
   </si>
 </sst>
 </file>
@@ -191,17 +191,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -664,12 +667,13 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="10.28515625" customWidth="1"/>
     <col min="18" max="27" width="8.5703125" customWidth="1"/>
   </cols>
@@ -685,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -709,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -739,12 +743,12 @@
         <v>16</v>
       </c>
       <c r="V1" s="43" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3">
         <v>123</v>
@@ -810,10 +814,10 @@
         <v>80.44</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="V2" s="44">
         <f>((K2/2)+(M2/4)+(L2/5)-(N2)+(S2/215)+(P2/20))+1</f>
@@ -822,7 +826,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -888,10 +892,10 @@
         <v>74.569999999999993</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V3" s="44">
         <f t="shared" ref="V3:V15" si="9">((K3/2)+(M3/4)+(L3/5)-(N3)+(S3/215)+(P3/20))+1</f>
@@ -900,7 +904,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11">
         <v>100</v>
@@ -966,10 +970,10 @@
         <v>78.91</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V4" s="44">
         <f t="shared" si="9"/>
@@ -978,7 +982,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11">
         <v>97</v>
@@ -1044,10 +1048,10 @@
         <v>76.209999999999994</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V5" s="44">
         <f t="shared" si="9"/>
@@ -1056,7 +1060,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>148</v>
@@ -1122,10 +1126,10 @@
         <v>85.25</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V6" s="44">
         <f t="shared" si="9"/>
@@ -1134,7 +1138,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>102</v>
@@ -1200,10 +1204,10 @@
         <v>62.48</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V7" s="44">
         <f t="shared" si="9"/>
@@ -1212,7 +1216,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9">
         <v>138</v>
@@ -1278,10 +1282,10 @@
         <v>84.57</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="V8" s="44">
         <f t="shared" si="9"/>
@@ -1290,7 +1294,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>93</v>
@@ -1356,10 +1360,10 @@
         <v>57.9</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V9" s="44">
         <f t="shared" si="9"/>
@@ -1368,7 +1372,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B10" s="22">
         <v>57</v>
@@ -1434,10 +1438,10 @@
         <v>80.36</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V10" s="44">
         <f t="shared" si="9"/>
@@ -1446,7 +1450,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="22">
         <v>43</v>
@@ -1512,10 +1516,10 @@
         <v>63.87</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="U11" s="22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V11" s="44">
         <f t="shared" si="9"/>
@@ -1524,7 +1528,7 @@
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B12" s="21">
         <v>56</v>
@@ -1590,10 +1594,10 @@
         <v>95.84</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V12" s="44">
         <f t="shared" si="9"/>
@@ -1602,7 +1606,7 @@
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="21">
         <v>18</v>
@@ -1668,10 +1672,10 @@
         <v>32.6</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V13" s="44">
         <f t="shared" si="9"/>
@@ -1680,7 +1684,7 @@
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B14" s="24">
         <v>17</v>
@@ -1746,10 +1750,10 @@
         <v>52.26</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V14" s="44">
         <f t="shared" si="9"/>
@@ -1758,7 +1762,7 @@
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="24">
         <v>23</v>
@@ -1824,10 +1828,10 @@
         <v>43.97</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V15" s="44">
         <f t="shared" si="9"/>
